--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14444635-4F78-6744-92BD-C5583DDE84A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CB4E31-CCE6-A54B-854F-7E59E24291A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="5360" yWindow="5400" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Daily MA reports on COVID-19 from mass.gov website</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>These guess at "other" tests using 9% positive rate</t>
+  </si>
+  <si>
+    <t>Tot pos rate</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD043-FC09-3B43-BF4D-6B30E18A11C2}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +498,7 @@
     <col min="20" max="20" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
@@ -507,7 +510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -577,8 +580,11 @@
       <c r="Y2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43906</v>
       </c>
@@ -628,8 +634,12 @@
         <f>B3</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" s="2">
+        <f>V3/U3</f>
+        <v>0.14234104046242774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>43907</v>
@@ -697,7 +707,7 @@
         <v>1839</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V9" si="2">B4</f>
+        <f t="shared" ref="V4:V10" si="2">B4</f>
         <v>218</v>
       </c>
       <c r="W4">
@@ -712,17 +722,21 @@
         <f>X4/W4</f>
         <v>4.6153846153846156E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="2">
+        <f t="shared" ref="Z4:Z10" si="3">V4/U4</f>
+        <v>0.11854268624252311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A14" si="3">A4+1</f>
+        <f t="shared" ref="A5:A14" si="4">A4+1</f>
         <v>43908</v>
       </c>
       <c r="B5">
         <v>256</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C9" si="4">(B5-B4)/B4</f>
+        <f t="shared" ref="C5:C10" si="5">(B5-B4)/B4</f>
         <v>0.1743119266055046</v>
       </c>
       <c r="D5">
@@ -765,15 +779,15 @@
         <v>0.10876265962131219</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q9" si="5">O5-O4</f>
+        <f t="shared" ref="Q5:Q9" si="6">O5-O4</f>
         <v>520</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R8" si="6">B5-B4-(M5-M4)</f>
+        <f t="shared" ref="R5:R8" si="7">B5-B4-(M5-M4)</f>
         <v>37</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" ref="S5:S8" si="7">R5/Q5</f>
+        <f t="shared" ref="S5:S8" si="8">R5/Q5</f>
         <v>7.1153846153846151E-2</v>
       </c>
       <c r="U5">
@@ -785,28 +799,32 @@
         <v>256</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W9" si="8">U5-U4</f>
+        <f t="shared" ref="W5:W9" si="9">U5-U4</f>
         <v>532</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X9" si="9">V5-V4</f>
+        <f t="shared" ref="X5:X9" si="10">V5-V4</f>
         <v>38</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" ref="Y5:Y9" si="10">X5/W5</f>
+        <f t="shared" ref="Y5:Y10" si="11">X5/W5</f>
         <v>7.1428571428571425E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10797132011809363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43909</v>
       </c>
       <c r="B6">
         <v>328</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28125</v>
       </c>
       <c r="D6">
@@ -849,15 +867,15 @@
         <v>9.6424010217113665E-2</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>861</v>
       </c>
       <c r="R6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.3879210220673638E-2</v>
       </c>
       <c r="U6">
@@ -869,28 +887,32 @@
         <v>328</v>
       </c>
       <c r="W6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1049</v>
       </c>
       <c r="X6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8636796949475692E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5906432748538009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43910</v>
       </c>
       <c r="B7">
         <v>413</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25914634146341464</v>
       </c>
       <c r="D7">
@@ -918,15 +940,15 @@
         <v>8.9021479713603816E-2</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1058</v>
       </c>
       <c r="R7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.7107750472589794E-2</v>
       </c>
       <c r="U7">
@@ -938,28 +960,32 @@
         <v>413</v>
       </c>
       <c r="W7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1214</v>
       </c>
       <c r="X7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.0016474464579898E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2">
+        <f t="shared" si="3"/>
+        <v>8.9123867069486398E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43911</v>
       </c>
       <c r="B8">
         <v>525</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2711864406779661</v>
       </c>
       <c r="D8">
@@ -1002,15 +1028,15 @@
         <v>8.7382369886691E-2</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1017</v>
       </c>
       <c r="R8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.0629301868239925E-2</v>
       </c>
       <c r="U8">
@@ -1022,28 +1048,32 @@
         <v>525</v>
       </c>
       <c r="W8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1350</v>
       </c>
       <c r="X8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.2962962962962961E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="2">
+        <f t="shared" si="3"/>
+        <v>8.7733957219251341E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43912</v>
       </c>
       <c r="B9">
         <v>646</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23047619047619047</v>
       </c>
       <c r="D9">
@@ -1086,15 +1116,15 @@
         <v>9.0772818121252499E-2</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>797</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9" si="11">B9-B8-(M9-M8)</f>
+        <f t="shared" ref="R9" si="12">B9-B8-(M9-M8)</f>
         <v>90</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" ref="S9" si="12">R9/Q9</f>
+        <f t="shared" ref="S9" si="13">R9/Q9</f>
         <v>0.11292346298619825</v>
       </c>
       <c r="U9">
@@ -1106,45 +1136,89 @@
         <v>646</v>
       </c>
       <c r="W9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1142</v>
       </c>
       <c r="X9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10595446584938704</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="2">
+        <f t="shared" si="3"/>
+        <v>9.0653943306202633E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
+        <v>43913</v>
+      </c>
+      <c r="B10">
+        <v>777</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20278637770897834</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2">
+        <f>E10/B10</f>
+        <v>0.10167310167310167</v>
+      </c>
+      <c r="U10">
+        <v>8922</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>777</v>
+      </c>
+      <c r="W10">
+        <f>U10-U9</f>
+        <v>1796</v>
+      </c>
+      <c r="X10">
+        <f>V10-V9</f>
+        <v>131</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="11"/>
+        <v>7.2939866369710463E-2</v>
+      </c>
+      <c r="Z10" s="2">
         <f t="shared" si="3"/>
-        <v>43913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>8.708809683927371E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43914</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43915</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43916</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43917</v>
       </c>
     </row>

--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CB4E31-CCE6-A54B-854F-7E59E24291A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137394A6-A96B-F540-AED3-BB1DE3A71D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="5400" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="29880" yWindow="6300" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,7 +161,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -482,7 +482,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
         <v>1751</v>
       </c>
       <c r="P4" s="2">
-        <f>(B4-M4)/O4</f>
+        <f t="shared" ref="P4:P9" si="1">(B4-M4)/O4</f>
         <v>0.11993146773272416</v>
       </c>
       <c r="Q4">
@@ -703,11 +703,11 @@
         <v>4.6153846153846156E-2</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U9" si="1">O4 + INT(M4/0.09)</f>
+        <f t="shared" ref="U4:U9" si="2">O4 + INT(M4/0.09)</f>
         <v>1839</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V10" si="2">B4</f>
+        <f t="shared" ref="V4:V13" si="3">B4</f>
         <v>218</v>
       </c>
       <c r="W4">
@@ -723,20 +723,20 @@
         <v>4.6153846153846156E-2</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" ref="Z4:Z10" si="3">V4/U4</f>
+        <f t="shared" ref="Z4:Z11" si="4">V4/U4</f>
         <v>0.11854268624252311</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A14" si="4">A4+1</f>
+        <f t="shared" ref="A5:A14" si="5">A4+1</f>
         <v>43908</v>
       </c>
       <c r="B5">
         <v>256</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C10" si="5">(B5-B4)/B4</f>
+        <f t="shared" ref="C5:C13" si="6">(B5-B4)/B4</f>
         <v>0.1743119266055046</v>
       </c>
       <c r="D5">
@@ -775,56 +775,56 @@
         <v>2271</v>
       </c>
       <c r="P5" s="2">
-        <f>(B5-M5)/O5</f>
+        <f t="shared" si="1"/>
         <v>0.10876265962131219</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q9" si="6">O5-O4</f>
+        <f t="shared" ref="Q5:Q9" si="7">O5-O4</f>
         <v>520</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R8" si="7">B5-B4-(M5-M4)</f>
+        <f t="shared" ref="R5:R8" si="8">B5-B4-(M5-M4)</f>
         <v>37</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" ref="S5:S8" si="8">R5/Q5</f>
+        <f t="shared" ref="S5:S8" si="9">R5/Q5</f>
         <v>7.1153846153846151E-2</v>
       </c>
       <c r="U5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2371</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W9" si="9">U5-U4</f>
+        <f t="shared" ref="W5:W9" si="10">U5-U4</f>
         <v>532</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X9" si="10">V5-V4</f>
+        <f t="shared" ref="X5:X9" si="11">V5-V4</f>
         <v>38</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" ref="Y5:Y10" si="11">X5/W5</f>
+        <f t="shared" ref="Y5:Y10" si="12">X5/W5</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10797132011809363</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43909</v>
       </c>
       <c r="B6">
         <v>328</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28125</v>
       </c>
       <c r="D6">
@@ -863,56 +863,56 @@
         <v>3132</v>
       </c>
       <c r="P6" s="2">
-        <f>(B6-M6)/O6</f>
+        <f t="shared" si="1"/>
         <v>9.6424010217113665E-2</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>861</v>
       </c>
       <c r="R6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.3879210220673638E-2</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3420</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>328</v>
       </c>
       <c r="W6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1049</v>
       </c>
       <c r="X6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8636796949475692E-2</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5906432748538009E-2</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43910</v>
       </c>
       <c r="B7">
         <v>413</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25914634146341464</v>
       </c>
       <c r="D7">
@@ -936,56 +936,56 @@
         <v>4190</v>
       </c>
       <c r="P7" s="2">
-        <f>(B7-M7)/O7</f>
+        <f t="shared" si="1"/>
         <v>8.9021479713603816E-2</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1058</v>
       </c>
       <c r="R7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.7107750472589794E-2</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4634</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>413</v>
       </c>
       <c r="W7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1214</v>
       </c>
       <c r="X7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0016474464579898E-2</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9123867069486398E-2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43911</v>
       </c>
       <c r="B8">
         <v>525</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2711864406779661</v>
       </c>
       <c r="D8">
@@ -1024,56 +1024,56 @@
         <v>5207</v>
       </c>
       <c r="P8" s="2">
-        <f>(B8-M8)/O8</f>
+        <f t="shared" si="1"/>
         <v>8.7382369886691E-2</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1017</v>
       </c>
       <c r="R8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0629301868239925E-2</v>
       </c>
       <c r="U8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5984</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>525</v>
       </c>
       <c r="W8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1350</v>
       </c>
       <c r="X8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.2962962962962961E-2</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7733957219251341E-2</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43912</v>
       </c>
       <c r="B9">
         <v>646</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23047619047619047</v>
       </c>
       <c r="D9">
@@ -1112,56 +1112,56 @@
         <v>6004</v>
       </c>
       <c r="P9" s="2">
-        <f>(B9-M9)/O9</f>
+        <f t="shared" si="1"/>
         <v>9.0772818121252499E-2</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>797</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9" si="12">B9-B8-(M9-M8)</f>
+        <f t="shared" ref="R9" si="13">B9-B8-(M9-M8)</f>
         <v>90</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" ref="S9" si="13">R9/Q9</f>
+        <f t="shared" ref="S9" si="14">R9/Q9</f>
         <v>0.11292346298619825</v>
       </c>
       <c r="U9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7126</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>646</v>
       </c>
       <c r="W9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1142</v>
       </c>
       <c r="X9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10595446584938704</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0653943306202633E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43913</v>
       </c>
       <c r="B10">
         <v>777</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20278637770897834</v>
       </c>
       <c r="D10">
@@ -1178,47 +1178,167 @@
         <v>8922</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>777</v>
       </c>
       <c r="W10">
-        <f>U10-U9</f>
+        <f t="shared" ref="W10:X12" si="15">U10-U9</f>
         <v>1796</v>
       </c>
       <c r="X10">
-        <f>V10-V9</f>
+        <f t="shared" si="15"/>
         <v>131</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2939866369710463E-2</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.708809683927371E-2</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <f t="shared" si="5"/>
+        <v>43914</v>
+      </c>
+      <c r="B11">
+        <v>1159</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.49163449163449163</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2">
+        <f>E11/B11</f>
+        <v>8.1104400345125102E-2</v>
+      </c>
+      <c r="U11">
+        <v>13749</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>1159</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="15"/>
+        <v>4827</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="15"/>
+        <v>382</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" ref="Y11" si="16">X11/W11</f>
+        <v>7.9138181064843591E-2</v>
+      </c>
+      <c r="Z11" s="2">
         <f t="shared" si="4"/>
-        <v>43914</v>
+        <v>8.4297039784711619E-2</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43915</v>
+      </c>
+      <c r="B12">
+        <v>1838</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="6"/>
+        <v>0.58584987057808458</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>103</v>
+      </c>
+      <c r="F12" s="2">
+        <f>E12/B12</f>
+        <v>5.6039173014145807E-2</v>
+      </c>
+      <c r="U12">
+        <v>19794</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>1838</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="15"/>
+        <v>6045</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="15"/>
+        <v>679</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" ref="Y12" si="17">X12/W12</f>
+        <v>0.11232423490488007</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" ref="Z12:Z13" si="18">V12/U12</f>
+        <v>9.2856421137718498E-2</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43916</v>
+      </c>
+      <c r="B13">
+        <v>2417</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="6"/>
+        <v>0.31501632208922742</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>219</v>
+      </c>
+      <c r="F13" s="2">
+        <f>E13/B13</f>
+        <v>9.0608191973520893E-2</v>
+      </c>
+      <c r="U13">
+        <v>23621</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>2417</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13" si="19">U13-U12</f>
+        <v>3827</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ref="X13" si="20">V13-V12</f>
+        <v>579</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" ref="Y13" si="21">X13/W13</f>
+        <v>0.15129344133786254</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="18"/>
+        <v>0.10232420303966809</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43917</v>
       </c>
     </row>

--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137394A6-A96B-F540-AED3-BB1DE3A71D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03374591-2E69-D84D-B6C9-4F4AB305C7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="6300" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="30080" yWindow="6040" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD043-FC09-3B43-BF4D-6B30E18A11C2}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,7 +707,7 @@
         <v>1839</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V13" si="3">B4</f>
+        <f t="shared" ref="V4:V15" si="3">B4</f>
         <v>218</v>
       </c>
       <c r="W4">
@@ -729,14 +729,14 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A14" si="5">A4+1</f>
+        <f t="shared" ref="A5:A15" si="5">A4+1</f>
         <v>43908</v>
       </c>
       <c r="B5">
         <v>256</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C13" si="6">(B5-B4)/B4</f>
+        <f t="shared" ref="C5:C15" si="6">(B5-B4)/B4</f>
         <v>0.1743119266055046</v>
       </c>
       <c r="D5">
@@ -995,7 +995,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="2">
-        <f>E8/B8</f>
+        <f t="shared" ref="F8:F15" si="13">E8/B8</f>
         <v>0.11619047619047619</v>
       </c>
       <c r="G8">
@@ -1083,7 +1083,7 @@
         <v>71</v>
       </c>
       <c r="F9" s="2">
-        <f>E9/B9</f>
+        <f t="shared" si="13"/>
         <v>0.10990712074303406</v>
       </c>
       <c r="G9">
@@ -1120,11 +1120,11 @@
         <v>797</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9" si="13">B9-B8-(M9-M8)</f>
+        <f t="shared" ref="R9" si="14">B9-B8-(M9-M8)</f>
         <v>90</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" ref="S9" si="14">R9/Q9</f>
+        <f t="shared" ref="S9" si="15">R9/Q9</f>
         <v>0.11292346298619825</v>
       </c>
       <c r="U9">
@@ -1171,7 +1171,7 @@
         <v>79</v>
       </c>
       <c r="F10" s="2">
-        <f>E10/B10</f>
+        <f t="shared" si="13"/>
         <v>0.10167310167310167</v>
       </c>
       <c r="U10">
@@ -1182,11 +1182,11 @@
         <v>777</v>
       </c>
       <c r="W10">
-        <f t="shared" ref="W10:X12" si="15">U10-U9</f>
+        <f t="shared" ref="W10:X12" si="16">U10-U9</f>
         <v>1796</v>
       </c>
       <c r="X10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>131</v>
       </c>
       <c r="Y10" s="2">
@@ -1217,7 +1217,7 @@
         <v>94</v>
       </c>
       <c r="F11" s="2">
-        <f>E11/B11</f>
+        <f t="shared" si="13"/>
         <v>8.1104400345125102E-2</v>
       </c>
       <c r="U11">
@@ -1228,15 +1228,15 @@
         <v>1159</v>
       </c>
       <c r="W11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4827</v>
       </c>
       <c r="X11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>382</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" ref="Y11" si="16">X11/W11</f>
+        <f t="shared" ref="Y11" si="17">X11/W11</f>
         <v>7.9138181064843591E-2</v>
       </c>
       <c r="Z11" s="2">
@@ -1263,7 +1263,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="2">
-        <f>E12/B12</f>
+        <f t="shared" si="13"/>
         <v>5.6039173014145807E-2</v>
       </c>
       <c r="U12">
@@ -1274,19 +1274,19 @@
         <v>1838</v>
       </c>
       <c r="W12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6045</v>
       </c>
       <c r="X12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>679</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" ref="Y12" si="17">X12/W12</f>
+        <f t="shared" ref="Y12" si="18">X12/W12</f>
         <v>0.11232423490488007</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" ref="Z12:Z13" si="18">V12/U12</f>
+        <f t="shared" ref="Z12:Z15" si="19">V12/U12</f>
         <v>9.2856421137718498E-2</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
         <v>219</v>
       </c>
       <c r="F13" s="2">
-        <f>E13/B13</f>
+        <f t="shared" si="13"/>
         <v>9.0608191973520893E-2</v>
       </c>
       <c r="U13">
@@ -1320,19 +1320,19 @@
         <v>2417</v>
       </c>
       <c r="W13">
-        <f t="shared" ref="W13" si="19">U13-U12</f>
+        <f t="shared" ref="W13" si="20">U13-U12</f>
         <v>3827</v>
       </c>
       <c r="X13">
-        <f t="shared" ref="X13" si="20">V13-V12</f>
+        <f t="shared" ref="X13" si="21">V13-V12</f>
         <v>579</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" ref="Y13" si="21">X13/W13</f>
+        <f t="shared" ref="Y13" si="22">X13/W13</f>
         <v>0.15129344133786254</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10232420303966809</v>
       </c>
     </row>
@@ -1340,6 +1340,92 @@
       <c r="A14" s="1">
         <f t="shared" si="5"/>
         <v>43917</v>
+      </c>
+      <c r="B14">
+        <v>3240</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="6"/>
+        <v>0.3405047579644187</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>288</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="13"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="U14">
+        <v>29371</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>3240</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14" si="23">U14-U13</f>
+        <v>5750</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14" si="24">V14-V13</f>
+        <v>823</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" ref="Y14" si="25">X14/W14</f>
+        <v>0.1431304347826087</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="19"/>
+        <v>0.11031289367062749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="5"/>
+        <v>43918</v>
+      </c>
+      <c r="B15">
+        <v>4257</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="6"/>
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="D15">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>350</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="13"/>
+        <v>8.2217524077989199E-2</v>
+      </c>
+      <c r="U15">
+        <v>35049</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>4257</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15" si="26">U15-U14</f>
+        <v>5678</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15" si="27">V15-V14</f>
+        <v>1017</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" ref="Y15" si="28">X15/W15</f>
+        <v>0.17911236350827756</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="19"/>
+        <v>0.12145852948728922</v>
       </c>
     </row>
   </sheetData>

--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03374591-2E69-D84D-B6C9-4F4AB305C7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462AD69F-DCD6-F04A-B1B7-331543A693D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="6040" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="5260" yWindow="2940" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD043-FC09-3B43-BF4D-6B30E18A11C2}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,8 +493,11 @@
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
+    <col min="8" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="15" max="19" width="0.1640625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,7 +710,7 @@
         <v>1839</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V15" si="3">B4</f>
+        <f t="shared" ref="V4:V18" si="3">B4</f>
         <v>218</v>
       </c>
       <c r="W4">
@@ -729,14 +732,14 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A15" si="5">A4+1</f>
+        <f t="shared" ref="A5:A16" si="5">A4+1</f>
         <v>43908</v>
       </c>
       <c r="B5">
         <v>256</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C15" si="6">(B5-B4)/B4</f>
+        <f t="shared" ref="C5:C18" si="6">(B5-B4)/B4</f>
         <v>0.1743119266055046</v>
       </c>
       <c r="D5">
@@ -995,7 +998,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:F15" si="13">E8/B8</f>
+        <f t="shared" ref="F8:F18" si="13">E8/B8</f>
         <v>0.11619047619047619</v>
       </c>
       <c r="G8">
@@ -1286,7 +1289,7 @@
         <v>0.11232423490488007</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" ref="Z12:Z15" si="19">V12/U12</f>
+        <f t="shared" ref="Z12:Z17" si="19">V12/U12</f>
         <v>9.2856421137718498E-2</v>
       </c>
     </row>
@@ -1428,8 +1431,145 @@
         <v>0.12145852948728922</v>
       </c>
     </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="5"/>
+        <v>43919</v>
+      </c>
+      <c r="B16">
+        <v>4955</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1639652337326756</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>399</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="13"/>
+        <v>8.0524722502522711E-2</v>
+      </c>
+      <c r="U16">
+        <v>39066</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>4955</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W16" si="29">U16-U15</f>
+        <v>4017</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ref="X16" si="30">V16-V15</f>
+        <v>698</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" ref="Y16" si="31">X16/W16</f>
+        <v>0.17376151356733882</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="19"/>
+        <v>0.12683663543746479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B17">
+        <v>5752</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16084762865792129</v>
+      </c>
+      <c r="D17">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>453</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="13"/>
+        <v>7.8755215577190549E-2</v>
+      </c>
+      <c r="U17">
+        <v>42793</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>5752</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ref="W17" si="32">U17-U16</f>
+        <v>3727</v>
+      </c>
+      <c r="X17">
+        <f t="shared" ref="X17" si="33">V17-V16</f>
+        <v>797</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" ref="Y17" si="34">X17/W17</f>
+        <v>0.2138449154816206</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="19"/>
+        <v>0.13441450704554483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B18">
+        <v>6620</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15090403337969402</v>
+      </c>
+      <c r="D18">
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <v>562</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="13"/>
+        <v>8.4894259818731124E-2</v>
+      </c>
+      <c r="U18">
+        <v>46935</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>6620</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18" si="35">U18-U17</f>
+        <v>4142</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18" si="36">V18-V17</f>
+        <v>868</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" ref="Y18" si="37">X18/W18</f>
+        <v>0.20956059874456784</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" ref="Z18" si="38">V18/U18</f>
+        <v>0.14104612762330884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462AD69F-DCD6-F04A-B1B7-331543A693D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C49FB-C6F9-8C42-95CC-3970D88E083E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="2940" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="28440" yWindow="6240" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD043-FC09-3B43-BF4D-6B30E18A11C2}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y41" sqref="Y41"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
         <v>1839</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V18" si="3">B4</f>
+        <f t="shared" ref="V4:V20" si="3">B4</f>
         <v>218</v>
       </c>
       <c r="W4">
@@ -739,7 +739,7 @@
         <v>256</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C18" si="6">(B5-B4)/B4</f>
+        <f t="shared" ref="C5:C20" si="6">(B5-B4)/B4</f>
         <v>0.1743119266055046</v>
       </c>
       <c r="D5">
@@ -998,7 +998,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:F18" si="13">E8/B8</f>
+        <f t="shared" ref="F8:F20" si="13">E8/B8</f>
         <v>0.11619047619047619</v>
       </c>
       <c r="G8">
@@ -1563,8 +1563,99 @@
         <v>0.20956059874456784</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" ref="Z18" si="38">V18/U18</f>
+        <f t="shared" ref="Z18:Z20" si="38">V18/U18</f>
         <v>0.14104612762330884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B19">
+        <v>7738</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16888217522658611</v>
+      </c>
+      <c r="D19">
+        <v>122</v>
+      </c>
+      <c r="E19">
+        <v>682</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="13"/>
+        <v>8.8136469371930731E-2</v>
+      </c>
+      <c r="U19">
+        <v>51738</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>7738</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19" si="39">U19-U18</f>
+        <v>4803</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19" si="40">V19-V18</f>
+        <v>1118</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" ref="Y19" si="41">X19/W19</f>
+        <v>0.23277118467624403</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="38"/>
+        <v>0.14956125091808728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f>A19+1</f>
+        <v>43923</v>
+      </c>
+      <c r="B20">
+        <v>8966</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15869733781338846</v>
+      </c>
+      <c r="D20">
+        <v>154</v>
+      </c>
+      <c r="E20">
+        <v>813</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="13"/>
+        <v>9.0675886683024759E-2</v>
+      </c>
+      <c r="U20">
+        <v>56608</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>8966</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20" si="42">U20-U19</f>
+        <v>4870</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20" si="43">V20-V19</f>
+        <v>1228</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" ref="Y20" si="44">X20/W20</f>
+        <v>0.25215605749486653</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="38"/>
+        <v>0.15838750706613905</v>
       </c>
     </row>
   </sheetData>

--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C49FB-C6F9-8C42-95CC-3970D88E083E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B023F-913A-1341-BD35-A95BC0106ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28440" yWindow="6240" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="31060" yWindow="5540" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Daily MA reports on COVID-19 from mass.gov website</t>
   </si>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD043-FC09-3B43-BF4D-6B30E18A11C2}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="C4" sqref="C4:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,30 +490,31 @@
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="15" max="19" width="0.1640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="4" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="21" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="O1" s="3" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="U1" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="W1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -527,67 +528,73 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43906</v>
       </c>
@@ -597,52 +604,52 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
-        <f>E3/B3</f>
+      <c r="H3" s="2">
+        <f>F3/B3</f>
         <v>7.1065989847715741E-2</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1092</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>181</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>48</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>156</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
+        <v>156</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="O3">
-        <f>G3+I3+K3</f>
+      <c r="Q3">
+        <f>I3+K3+M3</f>
         <v>1296</v>
       </c>
-      <c r="U3">
-        <f>O3 + INT(M3/0.09)</f>
+      <c r="W3">
+        <f>Q3 + INT(O3/0.09)</f>
         <v>1384</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <f>B3</f>
         <v>197</v>
       </c>
-      <c r="Z3" s="2">
-        <f>V3/U3</f>
+      <c r="AB3" s="2">
+        <f>X3/W3</f>
         <v>0.14234104046242774</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>43907</v>
@@ -657,80 +664,85 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2"/>
+      <c r="F4">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
-        <f>E4/B4</f>
+      <c r="G4" s="2">
+        <f>(F4-F3)/F3</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="2">
+        <f>F4/B4</f>
         <v>9.6330275229357804E-2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1367</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>197</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>164</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>220</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>12</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>8</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O7" si="0">G4+I4+K4</f>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q7" si="0">I4+K4+M4</f>
         <v>1751</v>
       </c>
-      <c r="P4" s="2">
-        <f t="shared" ref="P4:P9" si="1">(B4-M4)/O4</f>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:R9" si="1">(B4-O4)/Q4</f>
         <v>0.11993146773272416</v>
       </c>
-      <c r="Q4">
-        <f>O4-O3</f>
+      <c r="S4">
+        <f>Q4-Q3</f>
         <v>455</v>
       </c>
-      <c r="R4">
-        <f>B4-B3-(M4-M3)</f>
+      <c r="T4">
+        <f>B4-B3-(O4-O3)</f>
         <v>21</v>
       </c>
-      <c r="S4" s="2">
-        <f>R4/Q4</f>
+      <c r="U4" s="2">
+        <f>T4/S4</f>
         <v>4.6153846153846156E-2</v>
       </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U9" si="2">O4 + INT(M4/0.09)</f>
+      <c r="W4">
+        <f t="shared" ref="W4:W9" si="2">Q4 + INT(O4/0.09)</f>
         <v>1839</v>
       </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V20" si="3">B4</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X22" si="3">B4</f>
         <v>218</v>
       </c>
-      <c r="W4">
-        <f>U4-U3</f>
+      <c r="Y4">
+        <f>W4-W3</f>
         <v>455</v>
       </c>
-      <c r="X4">
-        <f>V4-V3</f>
+      <c r="Z4">
+        <f>X4-X3</f>
         <v>21</v>
       </c>
-      <c r="Y4" s="2">
-        <f>X4/W4</f>
+      <c r="AA4" s="2">
+        <f>Z4/Y4</f>
         <v>4.6153846153846156E-2</v>
       </c>
-      <c r="Z4" s="2">
-        <f t="shared" ref="Z4:Z11" si="4">V4/U4</f>
+      <c r="AB4" s="2">
+        <f t="shared" ref="AB4:AB11" si="4">X4/W4</f>
         <v>0.11854268624252311</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A16" si="5">A4+1</f>
         <v>43908</v>
@@ -739,86 +751,91 @@
         <v>256</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C20" si="6">(B5-B4)/B4</f>
+        <f t="shared" ref="C5:G22" si="6">(B5-B4)/B4</f>
         <v>0.1743119266055046</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2"/>
+      <c r="F5">
         <v>27</v>
       </c>
-      <c r="F5" s="2">
-        <f>E5/B5</f>
+      <c r="G5" s="2">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H5" s="2">
+        <f>F5/B5</f>
         <v>0.10546875</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1743</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>224</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>306</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>11</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>222</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>12</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>9</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>2271</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <f t="shared" si="1"/>
         <v>0.10876265962131219</v>
       </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:Q9" si="7">O5-O4</f>
+      <c r="S5">
+        <f t="shared" ref="S5:S9" si="7">Q5-Q4</f>
         <v>520</v>
       </c>
-      <c r="R5">
-        <f t="shared" ref="R5:R8" si="8">B5-B4-(M5-M4)</f>
+      <c r="T5">
+        <f t="shared" ref="T5:T8" si="8">B5-B4-(O5-O4)</f>
         <v>37</v>
       </c>
-      <c r="S5" s="2">
-        <f t="shared" ref="S5:S8" si="9">R5/Q5</f>
+      <c r="U5" s="2">
+        <f t="shared" ref="U5:U8" si="9">T5/S5</f>
         <v>7.1153846153846151E-2</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f t="shared" si="2"/>
         <v>2371</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W9" si="10">U5-U4</f>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y9" si="10">W5-W4</f>
         <v>532</v>
       </c>
-      <c r="X5">
-        <f t="shared" ref="X5:X9" si="11">V5-V4</f>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z9" si="11">X5-X4</f>
         <v>38</v>
       </c>
-      <c r="Y5" s="2">
-        <f t="shared" ref="Y5:Y10" si="12">X5/W5</f>
+      <c r="AA5" s="2">
+        <f t="shared" ref="AA5:AA10" si="12">Z5/Y5</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AB5" s="2">
         <f t="shared" si="4"/>
         <v>0.10797132011809363</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="5"/>
         <v>43909</v>
@@ -833,80 +850,85 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2"/>
+      <c r="F6">
         <v>43</v>
       </c>
-      <c r="F6" s="2">
-        <f>E6/B6</f>
+      <c r="G6" s="2">
+        <f t="shared" si="6"/>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="H6" s="2">
+        <f>F6/B6</f>
         <v>0.13109756097560976</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>2208</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>261</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>699</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>29</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>225</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>12</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>26</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>3132</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <f t="shared" si="1"/>
         <v>9.6424010217113665E-2</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <f t="shared" si="7"/>
         <v>861</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <f t="shared" si="9"/>
         <v>6.3879210220673638E-2</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <f t="shared" si="2"/>
         <v>3420</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <f t="shared" si="10"/>
         <v>1049</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <f t="shared" si="11"/>
         <v>72</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AA6" s="2">
         <f t="shared" si="12"/>
         <v>6.8636796949475692E-2</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AB6" s="2">
         <f t="shared" si="4"/>
         <v>9.5906432748538009E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="5"/>
         <v>43910</v>
@@ -921,65 +943,67 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7">
+      <c r="E7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7">
         <v>2666</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1039</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>485</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>40</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>4190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <f t="shared" si="1"/>
         <v>8.9021479713603816E-2</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <f t="shared" si="7"/>
         <v>1058</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <f t="shared" si="9"/>
         <v>6.7107750472589794E-2</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <f t="shared" si="2"/>
         <v>4634</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <f t="shared" si="3"/>
         <v>413</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <f t="shared" si="10"/>
         <v>1214</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <f t="shared" si="11"/>
         <v>85</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <f t="shared" si="12"/>
         <v>7.0016474464579898E-2</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <f t="shared" si="4"/>
         <v>8.9123867069486398E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="5"/>
         <v>43911</v>
@@ -994,80 +1018,85 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>61</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F20" si="13">E8/B8</f>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H22" si="13">F8/B8</f>
         <v>0.11619047619047619</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>3031</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>328</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1433</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>72</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>743</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>55</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>70</v>
       </c>
-      <c r="O8">
-        <f>G8+I8+K8</f>
+      <c r="Q8">
+        <f>I8+K8+M8</f>
         <v>5207</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <f t="shared" si="1"/>
         <v>8.7382369886691E-2</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <f t="shared" si="7"/>
         <v>1017</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
-      <c r="S8" s="2">
+      <c r="U8" s="2">
         <f t="shared" si="9"/>
         <v>8.0629301868239925E-2</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f t="shared" si="2"/>
         <v>5984</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <f t="shared" si="3"/>
         <v>525</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <f t="shared" si="10"/>
         <v>1350</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <f t="shared" si="11"/>
         <v>112</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AA8" s="2">
         <f t="shared" si="12"/>
         <v>8.2962962962962961E-2</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AB8" s="2">
         <f t="shared" si="4"/>
         <v>8.7733957219251341E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="5"/>
         <v>43912</v>
@@ -1082,80 +1111,88 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F9">
         <v>71</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16393442622950818</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="13"/>
         <v>0.10990712074303406</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>3403</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>362</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1651</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>103</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>950</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>80</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>101</v>
       </c>
-      <c r="O9">
-        <f>G9+I9+K9</f>
+      <c r="Q9">
+        <f>I9+K9+M9</f>
         <v>6004</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <f t="shared" si="1"/>
         <v>9.0772818121252499E-2</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <f t="shared" si="7"/>
         <v>797</v>
       </c>
-      <c r="R9">
-        <f t="shared" ref="R9" si="14">B9-B8-(M9-M8)</f>
+      <c r="T9">
+        <f t="shared" ref="T9" si="14">B9-B8-(O9-O8)</f>
         <v>90</v>
       </c>
-      <c r="S9" s="2">
-        <f t="shared" ref="S9" si="15">R9/Q9</f>
+      <c r="U9" s="2">
+        <f t="shared" ref="U9" si="15">T9/S9</f>
         <v>0.11292346298619825</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f t="shared" si="2"/>
         <v>7126</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <f t="shared" si="3"/>
         <v>646</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <f t="shared" si="10"/>
         <v>1142</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <f t="shared" si="11"/>
         <v>121</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AA9" s="2">
         <f t="shared" si="12"/>
         <v>0.10595446584938704</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AB9" s="2">
         <f t="shared" si="4"/>
         <v>9.0653943306202633E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="5"/>
         <v>43913</v>
@@ -1170,38 +1207,46 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="F10">
         <v>79</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11267605633802817</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="13"/>
         <v>0.10167310167310167</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>8922</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <f t="shared" si="3"/>
         <v>777</v>
       </c>
-      <c r="W10">
-        <f t="shared" ref="W10:X12" si="16">U10-U9</f>
+      <c r="Y10">
+        <f t="shared" ref="Y10:Z12" si="16">W10-W9</f>
         <v>1796</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <f t="shared" si="16"/>
         <v>131</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AA10" s="2">
         <f t="shared" si="12"/>
         <v>7.2939866369710463E-2</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AB10" s="2">
         <f t="shared" si="4"/>
         <v>8.708809683927371E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="5"/>
         <v>43914</v>
@@ -1216,38 +1261,46 @@
       <c r="D11">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F11">
         <v>94</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.189873417721519</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="13"/>
         <v>8.1104400345125102E-2</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>13749</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <f t="shared" si="3"/>
         <v>1159</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <f t="shared" si="16"/>
         <v>4827</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <f t="shared" si="16"/>
         <v>382</v>
       </c>
-      <c r="Y11" s="2">
-        <f t="shared" ref="Y11" si="17">X11/W11</f>
+      <c r="AA11" s="2">
+        <f t="shared" ref="AA11" si="17">Z11/Y11</f>
         <v>7.9138181064843591E-2</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AB11" s="2">
         <f t="shared" si="4"/>
         <v>8.4297039784711619E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="5"/>
         <v>43915</v>
@@ -1262,38 +1315,46 @@
       <c r="D12">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
+        <f t="shared" si="6"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F12">
         <v>103</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
+        <f t="shared" si="6"/>
+        <v>9.5744680851063829E-2</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="13"/>
         <v>5.6039173014145807E-2</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>19794</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <f t="shared" si="3"/>
         <v>1838</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <f t="shared" si="16"/>
         <v>6045</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <f t="shared" si="16"/>
         <v>679</v>
       </c>
-      <c r="Y12" s="2">
-        <f t="shared" ref="Y12" si="18">X12/W12</f>
+      <c r="AA12" s="2">
+        <f t="shared" ref="AA12" si="18">Z12/Y12</f>
         <v>0.11232423490488007</v>
       </c>
-      <c r="Z12" s="2">
-        <f t="shared" ref="Z12:Z17" si="19">V12/U12</f>
+      <c r="AB12" s="2">
+        <f t="shared" ref="AB12:AB17" si="19">X12/W12</f>
         <v>9.2856421137718498E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="5"/>
         <v>43916</v>
@@ -1308,38 +1369,46 @@
       <c r="D13">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F13">
         <v>219</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1262135922330097</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="13"/>
         <v>9.0608191973520893E-2</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>23621</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <f t="shared" si="3"/>
         <v>2417</v>
       </c>
-      <c r="W13">
-        <f t="shared" ref="W13" si="20">U13-U12</f>
+      <c r="Y13">
+        <f t="shared" ref="Y13" si="20">W13-W12</f>
         <v>3827</v>
       </c>
-      <c r="X13">
-        <f t="shared" ref="X13" si="21">V13-V12</f>
+      <c r="Z13">
+        <f t="shared" ref="Z13" si="21">X13-X12</f>
         <v>579</v>
       </c>
-      <c r="Y13" s="2">
-        <f t="shared" ref="Y13" si="22">X13/W13</f>
+      <c r="AA13" s="2">
+        <f t="shared" ref="AA13" si="22">Z13/Y13</f>
         <v>0.15129344133786254</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AB13" s="2">
         <f t="shared" si="19"/>
         <v>0.10232420303966809</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="5"/>
         <v>43917</v>
@@ -1354,38 +1423,46 @@
       <c r="D14">
         <v>35</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="F14">
         <v>288</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
+        <f t="shared" si="6"/>
+        <v>0.31506849315068491</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="13"/>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>29371</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <f t="shared" si="3"/>
         <v>3240</v>
       </c>
-      <c r="W14">
-        <f t="shared" ref="W14" si="23">U14-U13</f>
+      <c r="Y14">
+        <f t="shared" ref="Y14" si="23">W14-W13</f>
         <v>5750</v>
       </c>
-      <c r="X14">
-        <f t="shared" ref="X14" si="24">V14-V13</f>
+      <c r="Z14">
+        <f t="shared" ref="Z14" si="24">X14-X13</f>
         <v>823</v>
       </c>
-      <c r="Y14" s="2">
-        <f t="shared" ref="Y14" si="25">X14/W14</f>
+      <c r="AA14" s="2">
+        <f t="shared" ref="AA14" si="25">Z14/Y14</f>
         <v>0.1431304347826087</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AB14" s="2">
         <f t="shared" si="19"/>
         <v>0.11031289367062749</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="5"/>
         <v>43918</v>
@@ -1400,38 +1477,46 @@
       <c r="D15">
         <v>44</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
+        <f t="shared" si="6"/>
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="F15">
         <v>350</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
+        <f t="shared" si="6"/>
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="13"/>
         <v>8.2217524077989199E-2</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>35049</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <f t="shared" si="3"/>
         <v>4257</v>
       </c>
-      <c r="W15">
-        <f t="shared" ref="W15" si="26">U15-U14</f>
+      <c r="Y15">
+        <f t="shared" ref="Y15" si="26">W15-W14</f>
         <v>5678</v>
       </c>
-      <c r="X15">
-        <f t="shared" ref="X15" si="27">V15-V14</f>
+      <c r="Z15">
+        <f t="shared" ref="Z15" si="27">X15-X14</f>
         <v>1017</v>
       </c>
-      <c r="Y15" s="2">
-        <f t="shared" ref="Y15" si="28">X15/W15</f>
+      <c r="AA15" s="2">
+        <f t="shared" ref="AA15" si="28">Z15/Y15</f>
         <v>0.17911236350827756</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AB15" s="2">
         <f t="shared" si="19"/>
         <v>0.12145852948728922</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="5"/>
         <v>43919</v>
@@ -1446,38 +1531,46 @@
       <c r="D16">
         <v>48</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F16">
         <v>399</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
+        <f t="shared" si="6"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="13"/>
         <v>8.0524722502522711E-2</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>39066</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <f t="shared" si="3"/>
         <v>4955</v>
       </c>
-      <c r="W16">
-        <f t="shared" ref="W16" si="29">U16-U15</f>
+      <c r="Y16">
+        <f t="shared" ref="Y16" si="29">W16-W15</f>
         <v>4017</v>
       </c>
-      <c r="X16">
-        <f t="shared" ref="X16" si="30">V16-V15</f>
+      <c r="Z16">
+        <f t="shared" ref="Z16" si="30">X16-X15</f>
         <v>698</v>
       </c>
-      <c r="Y16" s="2">
-        <f t="shared" ref="Y16" si="31">X16/W16</f>
+      <c r="AA16" s="2">
+        <f t="shared" ref="AA16" si="31">Z16/Y16</f>
         <v>0.17376151356733882</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AB16" s="2">
         <f t="shared" si="19"/>
         <v>0.12683663543746479</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43920</v>
       </c>
@@ -1491,38 +1584,46 @@
       <c r="D17">
         <v>56</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F17">
         <v>453</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13533834586466165</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="13"/>
         <v>7.8755215577190549E-2</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>42793</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <f t="shared" si="3"/>
         <v>5752</v>
       </c>
-      <c r="W17">
-        <f t="shared" ref="W17" si="32">U17-U16</f>
+      <c r="Y17">
+        <f t="shared" ref="Y17" si="32">W17-W16</f>
         <v>3727</v>
       </c>
-      <c r="X17">
-        <f t="shared" ref="X17" si="33">V17-V16</f>
+      <c r="Z17">
+        <f t="shared" ref="Z17" si="33">X17-X16</f>
         <v>797</v>
       </c>
-      <c r="Y17" s="2">
-        <f t="shared" ref="Y17" si="34">X17/W17</f>
+      <c r="AA17" s="2">
+        <f t="shared" ref="AA17" si="34">Z17/Y17</f>
         <v>0.2138449154816206</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AB17" s="2">
         <f t="shared" si="19"/>
         <v>0.13441450704554483</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43921</v>
       </c>
@@ -1536,38 +1637,46 @@
       <c r="D18">
         <v>89</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="F18">
         <v>562</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
+        <f t="shared" si="6"/>
+        <v>0.24061810154525387</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="13"/>
         <v>8.4894259818731124E-2</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>46935</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <f t="shared" si="3"/>
         <v>6620</v>
       </c>
-      <c r="W18">
-        <f t="shared" ref="W18" si="35">U18-U17</f>
+      <c r="Y18">
+        <f t="shared" ref="Y18" si="35">W18-W17</f>
         <v>4142</v>
       </c>
-      <c r="X18">
-        <f t="shared" ref="X18" si="36">V18-V17</f>
+      <c r="Z18">
+        <f t="shared" ref="Z18" si="36">X18-X17</f>
         <v>868</v>
       </c>
-      <c r="Y18" s="2">
-        <f t="shared" ref="Y18" si="37">X18/W18</f>
+      <c r="AA18" s="2">
+        <f t="shared" ref="AA18" si="37">Z18/Y18</f>
         <v>0.20956059874456784</v>
       </c>
-      <c r="Z18" s="2">
-        <f t="shared" ref="Z18:Z20" si="38">V18/U18</f>
+      <c r="AB18" s="2">
+        <f t="shared" ref="AB18:AB20" si="38">X18/W18</f>
         <v>0.14104612762330884</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43922</v>
       </c>
@@ -1581,38 +1690,46 @@
       <c r="D19">
         <v>122</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
+        <f t="shared" si="6"/>
+        <v>0.3707865168539326</v>
+      </c>
+      <c r="F19">
         <v>682</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
+        <f t="shared" si="6"/>
+        <v>0.21352313167259787</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="13"/>
         <v>8.8136469371930731E-2</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>51738</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <f t="shared" si="3"/>
         <v>7738</v>
       </c>
-      <c r="W19">
-        <f t="shared" ref="W19" si="39">U19-U18</f>
+      <c r="Y19">
+        <f t="shared" ref="Y19" si="39">W19-W18</f>
         <v>4803</v>
       </c>
-      <c r="X19">
-        <f t="shared" ref="X19" si="40">V19-V18</f>
+      <c r="Z19">
+        <f t="shared" ref="Z19" si="40">X19-X18</f>
         <v>1118</v>
       </c>
-      <c r="Y19" s="2">
-        <f t="shared" ref="Y19" si="41">X19/W19</f>
+      <c r="AA19" s="2">
+        <f t="shared" ref="AA19" si="41">Z19/Y19</f>
         <v>0.23277118467624403</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AB19" s="2">
         <f t="shared" si="38"/>
         <v>0.14956125091808728</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>A19+1</f>
         <v>43923</v>
@@ -1627,35 +1744,151 @@
       <c r="D20">
         <v>154</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
+        <f t="shared" si="6"/>
+        <v>0.26229508196721313</v>
+      </c>
+      <c r="F20">
         <v>813</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
+        <f t="shared" si="6"/>
+        <v>0.19208211143695014</v>
+      </c>
+      <c r="H20" s="2">
         <f t="shared" si="13"/>
         <v>9.0675886683024759E-2</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>56608</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <f t="shared" si="3"/>
         <v>8966</v>
       </c>
-      <c r="W20">
-        <f t="shared" ref="W20" si="42">U20-U19</f>
+      <c r="Y20">
+        <f t="shared" ref="Y20" si="42">W20-W19</f>
         <v>4870</v>
       </c>
-      <c r="X20">
-        <f t="shared" ref="X20" si="43">V20-V19</f>
+      <c r="Z20">
+        <f t="shared" ref="Z20" si="43">X20-X19</f>
         <v>1228</v>
       </c>
-      <c r="Y20" s="2">
-        <f t="shared" ref="Y20" si="44">X20/W20</f>
+      <c r="AA20" s="2">
+        <f t="shared" ref="AA20" si="44">Z20/Y20</f>
         <v>0.25215605749486653</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AB20" s="2">
         <f t="shared" si="38"/>
         <v>0.15838750706613905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f>A20+1</f>
+        <v>43924</v>
+      </c>
+      <c r="B21">
+        <v>10402</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16016060673656035</v>
+      </c>
+      <c r="D21">
+        <v>192</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="6"/>
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="F21">
+        <v>966</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18819188191881919</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="13"/>
+        <v>9.2866756393001348E-2</v>
+      </c>
+      <c r="W21">
+        <v>62962</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>10402</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" ref="Y21" si="45">W21-W20</f>
+        <v>6354</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" ref="Z21" si="46">X21-X20</f>
+        <v>1436</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" ref="AA21" si="47">Z21/Y21</f>
+        <v>0.22599937047529114</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" ref="AB21:AB22" si="48">X21/W21</f>
+        <v>0.16521076204694896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f>A21+1</f>
+        <v>43925</v>
+      </c>
+      <c r="B22">
+        <v>11736</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12824456835223996</v>
+      </c>
+      <c r="D22">
+        <v>216</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="F22">
+        <v>1068</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10559006211180125</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="13"/>
+        <v>9.1002044989775058E-2</v>
+      </c>
+      <c r="W22">
+        <v>68800</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>11736</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ref="Y22" si="49">W22-W21</f>
+        <v>5838</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ref="Z22" si="50">X22-X21</f>
+        <v>1334</v>
+      </c>
+      <c r="AA22" s="2">
+        <f t="shared" ref="AA22" si="51">Z22/Y22</f>
+        <v>0.22850291195614936</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="48"/>
+        <v>0.17058139534883721</v>
       </c>
     </row>
   </sheetData>

--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B023F-913A-1341-BD35-A95BC0106ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F400AEF-91BA-3C40-98EC-BBED3F6D85CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31060" yWindow="5540" windowWidth="32640" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="42040" yWindow="2860" windowWidth="18180" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Daily MA reports on COVID-19 from mass.gov website</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Tot pos rate</t>
+  </si>
+  <si>
+    <t>Death rate</t>
   </si>
 </sst>
 </file>
@@ -479,42 +482,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD043-FC09-3B43-BF4D-6B30E18A11C2}">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="17" max="21" width="0.1640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="22" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q1" s="3" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="W1" t="s">
+      <c r="V1" s="3"/>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -531,70 +526,73 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43906</v>
       </c>
@@ -604,52 +602,52 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>14</v>
       </c>
-      <c r="H3" s="2">
-        <f>F3/B3</f>
+      <c r="I3" s="2">
+        <f>G3/B3</f>
         <v>7.1065989847715741E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1092</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>181</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>48</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>156</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>8</v>
       </c>
-      <c r="Q3">
-        <f>I3+K3+M3</f>
+      <c r="R3">
+        <f>J3+L3+N3</f>
         <v>1296</v>
       </c>
-      <c r="W3">
-        <f>Q3 + INT(O3/0.09)</f>
+      <c r="X3">
+        <f>R3 + INT(P3/0.09)</f>
         <v>1384</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f>B3</f>
         <v>197</v>
       </c>
-      <c r="AB3" s="2">
-        <f>X3/W3</f>
+      <c r="AC3" s="2">
+        <f>Y3/X3</f>
         <v>0.14234104046242774</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>43907</v>
@@ -665,84 +663,85 @@
         <v>0</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4">
+      <c r="F4" s="2"/>
+      <c r="G4">
         <v>21</v>
       </c>
-      <c r="G4" s="2">
-        <f>(F4-F3)/F3</f>
+      <c r="H4" s="2">
+        <f>(G4-G3)/G3</f>
         <v>0.5</v>
       </c>
-      <c r="H4" s="2">
-        <f>F4/B4</f>
+      <c r="I4" s="2">
+        <f>G4/B4</f>
         <v>9.6330275229357804E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1367</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>197</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>164</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>220</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>12</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>8</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q7" si="0">I4+K4+M4</f>
+      <c r="R4">
+        <f t="shared" ref="R4:R7" si="0">J4+L4+N4</f>
         <v>1751</v>
       </c>
-      <c r="R4" s="2">
-        <f t="shared" ref="R4:R9" si="1">(B4-O4)/Q4</f>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S9" si="1">(B4-P4)/R4</f>
         <v>0.11993146773272416</v>
       </c>
-      <c r="S4">
-        <f>Q4-Q3</f>
+      <c r="T4">
+        <f>R4-R3</f>
         <v>455</v>
       </c>
-      <c r="T4">
-        <f>B4-B3-(O4-O3)</f>
+      <c r="U4">
+        <f>B4-B3-(P4-P3)</f>
         <v>21</v>
       </c>
-      <c r="U4" s="2">
-        <f>T4/S4</f>
+      <c r="V4" s="2">
+        <f>U4/T4</f>
         <v>4.6153846153846156E-2</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W9" si="2">Q4 + INT(O4/0.09)</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X9" si="2">R4 + INT(P4/0.09)</f>
         <v>1839</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X22" si="3">B4</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y24" si="3">B4</f>
         <v>218</v>
-      </c>
-      <c r="Y4">
-        <f>W4-W3</f>
-        <v>455</v>
       </c>
       <c r="Z4">
         <f>X4-X3</f>
+        <v>455</v>
+      </c>
+      <c r="AA4">
+        <f>Y4-Y3</f>
         <v>21</v>
       </c>
-      <c r="AA4" s="2">
-        <f>Z4/Y4</f>
+      <c r="AB4" s="2">
+        <f>AA4/Z4</f>
         <v>4.6153846153846156E-2</v>
       </c>
-      <c r="AB4" s="2">
-        <f t="shared" ref="AB4:AB11" si="4">X4/W4</f>
+      <c r="AC4" s="2">
+        <f t="shared" ref="AC4:AC11" si="4">Y4/X4</f>
         <v>0.11854268624252311</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A16" si="5">A4+1</f>
         <v>43908</v>
@@ -751,91 +750,92 @@
         <v>256</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:G22" si="6">(B5-B4)/B4</f>
+        <f t="shared" ref="C5:H31" si="6">(B5-B4)/B4</f>
         <v>0.1743119266055046</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5">
+      <c r="F5" s="2"/>
+      <c r="G5">
         <v>27</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="H5" s="2">
-        <f>F5/B5</f>
+      <c r="I5" s="2">
+        <f>G5/B5</f>
         <v>0.10546875</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1743</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>224</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>306</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>11</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>222</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>12</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>9</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>2271</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <f t="shared" si="1"/>
         <v>0.10876265962131219</v>
       </c>
-      <c r="S5">
-        <f t="shared" ref="S5:S9" si="7">Q5-Q4</f>
+      <c r="T5">
+        <f t="shared" ref="T5:T9" si="7">R5-R4</f>
         <v>520</v>
       </c>
-      <c r="T5">
-        <f t="shared" ref="T5:T8" si="8">B5-B4-(O5-O4)</f>
+      <c r="U5">
+        <f t="shared" ref="U5:U8" si="8">B5-B4-(P5-P4)</f>
         <v>37</v>
       </c>
-      <c r="U5" s="2">
-        <f t="shared" ref="U5:U8" si="9">T5/S5</f>
+      <c r="V5" s="2">
+        <f t="shared" ref="V5:V8" si="9">U5/T5</f>
         <v>7.1153846153846151E-2</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f t="shared" si="2"/>
         <v>2371</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="Y5">
-        <f t="shared" ref="Y5:Y9" si="10">W5-W4</f>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z9" si="10">X5-X4</f>
         <v>532</v>
       </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z9" si="11">X5-X4</f>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA9" si="11">Y5-Y4</f>
         <v>38</v>
       </c>
-      <c r="AA5" s="2">
-        <f t="shared" ref="AA5:AA10" si="12">Z5/Y5</f>
+      <c r="AB5" s="2">
+        <f t="shared" ref="AB5:AB10" si="12">AA5/Z5</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AC5" s="2">
         <f t="shared" si="4"/>
         <v>0.10797132011809363</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="5"/>
         <v>43909</v>
@@ -851,84 +851,85 @@
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6">
+      <c r="F6" s="2"/>
+      <c r="G6">
         <v>43</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="6"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="H6" s="2">
-        <f>F6/B6</f>
+      <c r="I6" s="2">
+        <f>G6/B6</f>
         <v>0.13109756097560976</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2208</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>261</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>699</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>29</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>225</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>12</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>26</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>3132</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <f t="shared" si="1"/>
         <v>9.6424010217113665E-2</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="7"/>
         <v>861</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <f t="shared" si="9"/>
         <v>6.3879210220673638E-2</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="2"/>
         <v>3420</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="10"/>
         <v>1049</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f t="shared" si="11"/>
         <v>72</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <f t="shared" si="12"/>
         <v>6.8636796949475692E-2</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AC6" s="2">
         <f t="shared" si="4"/>
         <v>9.5906432748538009E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="5"/>
         <v>43910</v>
@@ -944,66 +945,67 @@
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7">
+      <c r="I7" s="2"/>
+      <c r="J7">
         <v>2666</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1039</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>485</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>40</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>4190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <f t="shared" si="1"/>
         <v>8.9021479713603816E-2</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="7"/>
         <v>1058</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <f t="shared" si="9"/>
         <v>6.7107750472589794E-2</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f t="shared" si="2"/>
         <v>4634</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="3"/>
         <v>413</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f t="shared" si="10"/>
         <v>1214</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f t="shared" si="11"/>
         <v>85</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <f t="shared" si="12"/>
         <v>7.0016474464579898E-2</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <f t="shared" si="4"/>
         <v>8.9123867069486398E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="5"/>
         <v>43911</v>
@@ -1022,81 +1024,85 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
+        <f>D8/B8</f>
+        <v>1.9047619047619048E-3</v>
+      </c>
+      <c r="G8">
         <v>61</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <f t="shared" ref="H8:H22" si="13">F8/B8</f>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:I28" si="13">G8/B8</f>
         <v>0.11619047619047619</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3031</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>328</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1433</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>72</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>743</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>55</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>70</v>
       </c>
-      <c r="Q8">
-        <f>I8+K8+M8</f>
+      <c r="R8">
+        <f>J8+L8+N8</f>
         <v>5207</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2">
         <f t="shared" si="1"/>
         <v>8.7382369886691E-2</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="7"/>
         <v>1017</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <f t="shared" si="9"/>
         <v>8.0629301868239925E-2</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f t="shared" si="2"/>
         <v>5984</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="3"/>
         <v>525</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="10"/>
         <v>1350</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f t="shared" si="11"/>
         <v>112</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <f t="shared" si="12"/>
         <v>8.2962962962962961E-2</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AC8" s="2">
         <f t="shared" si="4"/>
         <v>8.7733957219251341E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="5"/>
         <v>43912</v>
@@ -1115,84 +1121,88 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:F27" si="14">D9/B9</f>
+        <v>7.7399380804953561E-3</v>
+      </c>
+      <c r="G9">
         <v>71</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="6"/>
         <v>0.16393442622950818</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <f t="shared" si="13"/>
         <v>0.10990712074303406</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3403</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>362</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1651</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>103</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>950</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>80</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>101</v>
       </c>
-      <c r="Q9">
-        <f>I9+K9+M9</f>
+      <c r="R9">
+        <f>J9+L9+N9</f>
         <v>6004</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <f t="shared" si="1"/>
         <v>9.0772818121252499E-2</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="7"/>
         <v>797</v>
       </c>
-      <c r="T9">
-        <f t="shared" ref="T9" si="14">B9-B8-(O9-O8)</f>
+      <c r="U9">
+        <f t="shared" ref="U9" si="15">B9-B8-(P9-P8)</f>
         <v>90</v>
       </c>
-      <c r="U9" s="2">
-        <f t="shared" ref="U9" si="15">T9/S9</f>
+      <c r="V9" s="2">
+        <f t="shared" ref="V9" si="16">U9/T9</f>
         <v>0.11292346298619825</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f t="shared" si="2"/>
         <v>7126</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="3"/>
         <v>646</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="10"/>
         <v>1142</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f t="shared" si="11"/>
         <v>121</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <f t="shared" si="12"/>
         <v>0.10595446584938704</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AC9" s="2">
         <f t="shared" si="4"/>
         <v>9.0653943306202633E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="5"/>
         <v>43913</v>
@@ -1211,42 +1221,46 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
+        <f t="shared" si="14"/>
+        <v>1.1583011583011582E-2</v>
+      </c>
+      <c r="G10">
         <v>79</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="6"/>
         <v>0.11267605633802817</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <f t="shared" si="13"/>
         <v>0.10167310167310167</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>8922</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f t="shared" si="3"/>
         <v>777</v>
       </c>
-      <c r="Y10">
-        <f t="shared" ref="Y10:Z12" si="16">W10-W9</f>
+      <c r="Z10">
+        <f t="shared" ref="Z10:AA12" si="17">X10-X9</f>
         <v>1796</v>
       </c>
-      <c r="Z10">
-        <f t="shared" si="16"/>
+      <c r="AA10">
+        <f t="shared" si="17"/>
         <v>131</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AB10" s="2">
         <f t="shared" si="12"/>
         <v>7.2939866369710463E-2</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AC10" s="2">
         <f t="shared" si="4"/>
         <v>8.708809683927371E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="5"/>
         <v>43914</v>
@@ -1265,42 +1279,46 @@
         <f t="shared" si="6"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
+        <f t="shared" si="14"/>
+        <v>9.4909404659188953E-3</v>
+      </c>
+      <c r="G11">
         <v>94</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="6"/>
         <v>0.189873417721519</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <f t="shared" si="13"/>
         <v>8.1104400345125102E-2</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>13749</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f t="shared" si="3"/>
         <v>1159</v>
       </c>
-      <c r="Y11">
-        <f t="shared" si="16"/>
+      <c r="Z11">
+        <f t="shared" si="17"/>
         <v>4827</v>
       </c>
-      <c r="Z11">
-        <f t="shared" si="16"/>
+      <c r="AA11">
+        <f t="shared" si="17"/>
         <v>382</v>
       </c>
-      <c r="AA11" s="2">
-        <f t="shared" ref="AA11" si="17">Z11/Y11</f>
+      <c r="AB11" s="2">
+        <f t="shared" ref="AB11" si="18">AA11/Z11</f>
         <v>7.9138181064843591E-2</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AC11" s="2">
         <f t="shared" si="4"/>
         <v>8.4297039784711619E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="5"/>
         <v>43915</v>
@@ -1319,42 +1337,46 @@
         <f t="shared" si="6"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
+        <f t="shared" si="14"/>
+        <v>8.1610446137105556E-3</v>
+      </c>
+      <c r="G12">
         <v>103</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="6"/>
         <v>9.5744680851063829E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <f t="shared" si="13"/>
         <v>5.6039173014145807E-2</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>19794</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f t="shared" si="3"/>
         <v>1838</v>
       </c>
-      <c r="Y12">
-        <f t="shared" si="16"/>
+      <c r="Z12">
+        <f t="shared" si="17"/>
         <v>6045</v>
       </c>
-      <c r="Z12">
-        <f t="shared" si="16"/>
+      <c r="AA12">
+        <f t="shared" si="17"/>
         <v>679</v>
       </c>
-      <c r="AA12" s="2">
-        <f t="shared" ref="AA12" si="18">Z12/Y12</f>
+      <c r="AB12" s="2">
+        <f t="shared" ref="AB12" si="19">AA12/Z12</f>
         <v>0.11232423490488007</v>
       </c>
-      <c r="AB12" s="2">
-        <f t="shared" ref="AB12:AB17" si="19">X12/W12</f>
+      <c r="AC12" s="2">
+        <f t="shared" ref="AC12:AC17" si="20">Y12/X12</f>
         <v>9.2856421137718498E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="5"/>
         <v>43916</v>
@@ -1373,42 +1395,46 @@
         <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
+        <f t="shared" si="14"/>
+        <v>1.0343400910219279E-2</v>
+      </c>
+      <c r="G13">
         <v>219</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="6"/>
         <v>1.1262135922330097</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <f t="shared" si="13"/>
         <v>9.0608191973520893E-2</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>23621</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f t="shared" si="3"/>
         <v>2417</v>
       </c>
-      <c r="Y13">
-        <f t="shared" ref="Y13" si="20">W13-W12</f>
-        <v>3827</v>
-      </c>
       <c r="Z13">
         <f t="shared" ref="Z13" si="21">X13-X12</f>
+        <v>3827</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" ref="AA13" si="22">Y13-Y12</f>
         <v>579</v>
       </c>
-      <c r="AA13" s="2">
-        <f t="shared" ref="AA13" si="22">Z13/Y13</f>
+      <c r="AB13" s="2">
+        <f t="shared" ref="AB13" si="23">AA13/Z13</f>
         <v>0.15129344133786254</v>
       </c>
-      <c r="AB13" s="2">
-        <f t="shared" si="19"/>
+      <c r="AC13" s="2">
+        <f t="shared" si="20"/>
         <v>0.10232420303966809</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="5"/>
         <v>43917</v>
@@ -1427,42 +1453,46 @@
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
+        <f t="shared" si="14"/>
+        <v>1.0802469135802469E-2</v>
+      </c>
+      <c r="G14">
         <v>288</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="6"/>
         <v>0.31506849315068491</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="13"/>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>29371</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <f t="shared" si="3"/>
         <v>3240</v>
       </c>
-      <c r="Y14">
-        <f t="shared" ref="Y14" si="23">W14-W13</f>
-        <v>5750</v>
-      </c>
       <c r="Z14">
         <f t="shared" ref="Z14" si="24">X14-X13</f>
+        <v>5750</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ref="AA14" si="25">Y14-Y13</f>
         <v>823</v>
       </c>
-      <c r="AA14" s="2">
-        <f t="shared" ref="AA14" si="25">Z14/Y14</f>
+      <c r="AB14" s="2">
+        <f t="shared" ref="AB14" si="26">AA14/Z14</f>
         <v>0.1431304347826087</v>
       </c>
-      <c r="AB14" s="2">
-        <f t="shared" si="19"/>
+      <c r="AC14" s="2">
+        <f t="shared" si="20"/>
         <v>0.11031289367062749</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="5"/>
         <v>43918</v>
@@ -1481,42 +1511,46 @@
         <f t="shared" si="6"/>
         <v>0.25714285714285712</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
+        <f t="shared" si="14"/>
+        <v>1.0335917312661499E-2</v>
+      </c>
+      <c r="G15">
         <v>350</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <f t="shared" si="6"/>
         <v>0.21527777777777779</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <f t="shared" si="13"/>
         <v>8.2217524077989199E-2</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>35049</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <f t="shared" si="3"/>
         <v>4257</v>
       </c>
-      <c r="Y15">
-        <f t="shared" ref="Y15" si="26">W15-W14</f>
-        <v>5678</v>
-      </c>
       <c r="Z15">
         <f t="shared" ref="Z15" si="27">X15-X14</f>
+        <v>5678</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" ref="AA15" si="28">Y15-Y14</f>
         <v>1017</v>
       </c>
-      <c r="AA15" s="2">
-        <f t="shared" ref="AA15" si="28">Z15/Y15</f>
+      <c r="AB15" s="2">
+        <f t="shared" ref="AB15" si="29">AA15/Z15</f>
         <v>0.17911236350827756</v>
       </c>
-      <c r="AB15" s="2">
-        <f t="shared" si="19"/>
+      <c r="AC15" s="2">
+        <f t="shared" si="20"/>
         <v>0.12145852948728922</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="5"/>
         <v>43919</v>
@@ -1535,42 +1569,46 @@
         <f t="shared" si="6"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
+        <f t="shared" si="14"/>
+        <v>9.6871846619576187E-3</v>
+      </c>
+      <c r="G16">
         <v>399</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <f t="shared" si="6"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <f t="shared" si="13"/>
         <v>8.0524722502522711E-2</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>39066</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <f t="shared" si="3"/>
         <v>4955</v>
       </c>
-      <c r="Y16">
-        <f t="shared" ref="Y16" si="29">W16-W15</f>
-        <v>4017</v>
-      </c>
       <c r="Z16">
         <f t="shared" ref="Z16" si="30">X16-X15</f>
+        <v>4017</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" ref="AA16" si="31">Y16-Y15</f>
         <v>698</v>
       </c>
-      <c r="AA16" s="2">
-        <f t="shared" ref="AA16" si="31">Z16/Y16</f>
+      <c r="AB16" s="2">
+        <f t="shared" ref="AB16" si="32">AA16/Z16</f>
         <v>0.17376151356733882</v>
       </c>
-      <c r="AB16" s="2">
-        <f t="shared" si="19"/>
+      <c r="AC16" s="2">
+        <f t="shared" si="20"/>
         <v>0.12683663543746479</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43920</v>
       </c>
@@ -1588,42 +1626,46 @@
         <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
+        <f t="shared" si="14"/>
+        <v>9.7357440890125171E-3</v>
+      </c>
+      <c r="G17">
         <v>453</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <f t="shared" si="6"/>
         <v>0.13533834586466165</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <f t="shared" si="13"/>
         <v>7.8755215577190549E-2</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>42793</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <f t="shared" si="3"/>
         <v>5752</v>
       </c>
-      <c r="Y17">
-        <f t="shared" ref="Y17" si="32">W17-W16</f>
-        <v>3727</v>
-      </c>
       <c r="Z17">
         <f t="shared" ref="Z17" si="33">X17-X16</f>
+        <v>3727</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" ref="AA17" si="34">Y17-Y16</f>
         <v>797</v>
       </c>
-      <c r="AA17" s="2">
-        <f t="shared" ref="AA17" si="34">Z17/Y17</f>
+      <c r="AB17" s="2">
+        <f t="shared" ref="AB17" si="35">AA17/Z17</f>
         <v>0.2138449154816206</v>
       </c>
-      <c r="AB17" s="2">
-        <f t="shared" si="19"/>
+      <c r="AC17" s="2">
+        <f t="shared" si="20"/>
         <v>0.13441450704554483</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43921</v>
       </c>
@@ -1641,42 +1683,46 @@
         <f t="shared" si="6"/>
         <v>0.5892857142857143</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3444108761329305E-2</v>
+      </c>
+      <c r="G18">
         <v>562</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="6"/>
         <v>0.24061810154525387</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <f t="shared" si="13"/>
         <v>8.4894259818731124E-2</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>46935</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <f t="shared" si="3"/>
         <v>6620</v>
       </c>
-      <c r="Y18">
-        <f t="shared" ref="Y18" si="35">W18-W17</f>
-        <v>4142</v>
-      </c>
       <c r="Z18">
         <f t="shared" ref="Z18" si="36">X18-X17</f>
+        <v>4142</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ref="AA18" si="37">Y18-Y17</f>
         <v>868</v>
       </c>
-      <c r="AA18" s="2">
-        <f t="shared" ref="AA18" si="37">Z18/Y18</f>
+      <c r="AB18" s="2">
+        <f t="shared" ref="AB18" si="38">AA18/Z18</f>
         <v>0.20956059874456784</v>
       </c>
-      <c r="AB18" s="2">
-        <f t="shared" ref="AB18:AB20" si="38">X18/W18</f>
+      <c r="AC18" s="2">
+        <f t="shared" ref="AC18:AC20" si="39">Y18/X18</f>
         <v>0.14104612762330884</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43922</v>
       </c>
@@ -1694,44 +1740,48 @@
         <f t="shared" si="6"/>
         <v>0.3707865168539326</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
+        <f t="shared" si="14"/>
+        <v>1.5766347893512535E-2</v>
+      </c>
+      <c r="G19">
         <v>682</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <f t="shared" si="6"/>
         <v>0.21352313167259787</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="13"/>
         <v>8.8136469371930731E-2</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>51738</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <f t="shared" si="3"/>
         <v>7738</v>
       </c>
-      <c r="Y19">
-        <f t="shared" ref="Y19" si="39">W19-W18</f>
-        <v>4803</v>
-      </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="40">X19-X18</f>
+        <v>4803</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" ref="AA19" si="41">Y19-Y18</f>
         <v>1118</v>
       </c>
-      <c r="AA19" s="2">
-        <f t="shared" ref="AA19" si="41">Z19/Y19</f>
+      <c r="AB19" s="2">
+        <f t="shared" ref="AB19" si="42">AA19/Z19</f>
         <v>0.23277118467624403</v>
       </c>
-      <c r="AB19" s="2">
-        <f t="shared" si="38"/>
+      <c r="AC19" s="2">
+        <f t="shared" si="39"/>
         <v>0.14956125091808728</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f>A19+1</f>
+        <f t="shared" ref="A20:A38" si="43">A19+1</f>
         <v>43923</v>
       </c>
       <c r="B20">
@@ -1748,44 +1798,48 @@
         <f t="shared" si="6"/>
         <v>0.26229508196721313</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
+        <f t="shared" si="14"/>
+        <v>1.7175998215480704E-2</v>
+      </c>
+      <c r="G20">
         <v>813</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <f t="shared" si="6"/>
         <v>0.19208211143695014</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <f t="shared" si="13"/>
         <v>9.0675886683024759E-2</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>56608</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <f t="shared" si="3"/>
         <v>8966</v>
       </c>
-      <c r="Y20">
-        <f t="shared" ref="Y20" si="42">W20-W19</f>
+      <c r="Z20">
+        <f t="shared" ref="Z20" si="44">X20-X19</f>
         <v>4870</v>
       </c>
-      <c r="Z20">
-        <f t="shared" ref="Z20" si="43">X20-X19</f>
+      <c r="AA20">
+        <f t="shared" ref="AA20" si="45">Y20-Y19</f>
         <v>1228</v>
       </c>
-      <c r="AA20" s="2">
-        <f t="shared" ref="AA20" si="44">Z20/Y20</f>
+      <c r="AB20" s="2">
+        <f t="shared" ref="AB20" si="46">AA20/Z20</f>
         <v>0.25215605749486653</v>
       </c>
-      <c r="AB20" s="2">
-        <f t="shared" si="38"/>
+      <c r="AC20" s="2">
+        <f t="shared" si="39"/>
         <v>0.15838750706613905</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f>A20+1</f>
+        <f t="shared" si="43"/>
         <v>43924</v>
       </c>
       <c r="B21">
@@ -1802,44 +1856,48 @@
         <f t="shared" si="6"/>
         <v>0.24675324675324675</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
+        <f t="shared" si="14"/>
+        <v>1.8457988848298405E-2</v>
+      </c>
+      <c r="G21">
         <v>966</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <f t="shared" si="6"/>
         <v>0.18819188191881919</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <f t="shared" si="13"/>
         <v>9.2866756393001348E-2</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>62962</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <f t="shared" si="3"/>
         <v>10402</v>
       </c>
-      <c r="Y21">
-        <f t="shared" ref="Y21" si="45">W21-W20</f>
+      <c r="Z21">
+        <f t="shared" ref="Z21" si="47">X21-X20</f>
         <v>6354</v>
       </c>
-      <c r="Z21">
-        <f t="shared" ref="Z21" si="46">X21-X20</f>
+      <c r="AA21">
+        <f t="shared" ref="AA21" si="48">Y21-Y20</f>
         <v>1436</v>
       </c>
-      <c r="AA21" s="2">
-        <f t="shared" ref="AA21" si="47">Z21/Y21</f>
+      <c r="AB21" s="2">
+        <f t="shared" ref="AB21" si="49">AA21/Z21</f>
         <v>0.22599937047529114</v>
       </c>
-      <c r="AB21" s="2">
-        <f t="shared" ref="AB21:AB22" si="48">X21/W21</f>
+      <c r="AC21" s="2">
+        <f t="shared" ref="AC21:AC22" si="50">Y21/X21</f>
         <v>0.16521076204694896</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f>A21+1</f>
+        <f t="shared" si="43"/>
         <v>43925</v>
       </c>
       <c r="B22">
@@ -1856,39 +1914,935 @@
         <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
+        <f t="shared" si="14"/>
+        <v>1.8404907975460124E-2</v>
+      </c>
+      <c r="G22">
         <v>1068</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <f t="shared" si="6"/>
         <v>0.10559006211180125</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <f t="shared" si="13"/>
         <v>9.1002044989775058E-2</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>68800</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <f t="shared" si="3"/>
         <v>11736</v>
       </c>
-      <c r="Y22">
-        <f t="shared" ref="Y22" si="49">W22-W21</f>
+      <c r="Z22">
+        <f t="shared" ref="Z22" si="51">X22-X21</f>
         <v>5838</v>
       </c>
-      <c r="Z22">
-        <f t="shared" ref="Z22" si="50">X22-X21</f>
+      <c r="AA22">
+        <f t="shared" ref="AA22" si="52">Y22-Y21</f>
         <v>1334</v>
       </c>
-      <c r="AA22" s="2">
-        <f t="shared" ref="AA22" si="51">Z22/Y22</f>
+      <c r="AB22" s="2">
+        <f t="shared" ref="AB22" si="53">AA22/Z22</f>
         <v>0.22850291195614936</v>
       </c>
-      <c r="AB22" s="2">
-        <f t="shared" si="48"/>
+      <c r="AC22" s="2">
+        <f t="shared" si="50"/>
         <v>0.17058139534883721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="43"/>
+        <v>43926</v>
+      </c>
+      <c r="B23">
+        <v>12500</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="6"/>
+        <v>6.50988411724608E-2</v>
+      </c>
+      <c r="D23">
+        <v>231</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="6"/>
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="14"/>
+        <v>1.848E-2</v>
+      </c>
+      <c r="G23">
+        <v>1145</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="6"/>
+        <v>7.2097378277153554E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="13"/>
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="X23">
+        <v>71937</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" ref="Z23" si="54">X23-X22</f>
+        <v>3137</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ref="AA23" si="55">Y23-Y22</f>
+        <v>764</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" ref="AB23" si="56">AA23/Z23</f>
+        <v>0.24354478801402615</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" ref="AC23:AC24" si="57">Y23/X23</f>
+        <v>0.17376315387074801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="43"/>
+        <v>43927</v>
+      </c>
+      <c r="B24">
+        <v>13837</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10696</v>
+      </c>
+      <c r="D24">
+        <v>280</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="6"/>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="14"/>
+        <v>2.0235600202356003E-2</v>
+      </c>
+      <c r="G24">
+        <v>1241</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="6"/>
+        <v>8.3842794759825326E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="13"/>
+        <v>8.968707089687071E-2</v>
+      </c>
+      <c r="X24">
+        <v>76429</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>13837</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24" si="58">X24-X23</f>
+        <v>4492</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ref="AA24" si="59">Y24-Y23</f>
+        <v>1337</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" ref="AB24" si="60">AA24/Z24</f>
+        <v>0.29764024933214606</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="57"/>
+        <v>0.18104384461395542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="43"/>
+        <v>43928</v>
+      </c>
+      <c r="B25">
+        <v>15202</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="6"/>
+        <v>9.8648550986485506E-2</v>
+      </c>
+      <c r="D25">
+        <v>356</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="6"/>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="14"/>
+        <v>2.3417971319563215E-2</v>
+      </c>
+      <c r="G25">
+        <v>1435</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1563255439161966</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="13"/>
+        <v>9.4395474279700034E-2</v>
+      </c>
+      <c r="X25">
+        <v>81344</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y25:Y27" si="61">B25</f>
+        <v>15202</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ref="Z25" si="62">X25-X24</f>
+        <v>4915</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" ref="AA25" si="63">Y25-Y24</f>
+        <v>1365</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" ref="AB25" si="64">AA25/Z25</f>
+        <v>0.2777212614445575</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" ref="AC25:AC27" si="65">Y25/X25</f>
+        <v>0.18688532651455547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="43"/>
+        <v>43929</v>
+      </c>
+      <c r="B26">
+        <v>16790</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10445993948164715</v>
+      </c>
+      <c r="D26">
+        <v>433</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="6"/>
+        <v>0.21629213483146068</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="14"/>
+        <v>2.578916021441334E-2</v>
+      </c>
+      <c r="G26">
+        <v>1583</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10313588850174216</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="13"/>
+        <v>9.4282310899344843E-2</v>
+      </c>
+      <c r="X26">
+        <v>87511</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="61"/>
+        <v>16790</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" ref="Z26" si="66">X26-X25</f>
+        <v>6167</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ref="AA26" si="67">Y26-Y25</f>
+        <v>1588</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" ref="AB26" si="68">AA26/Z26</f>
+        <v>0.25749959461650723</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="65"/>
+        <v>0.19186159454240037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="43"/>
+        <v>43930</v>
+      </c>
+      <c r="B27">
+        <v>18941</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1281119714115545</v>
+      </c>
+      <c r="D27">
+        <v>503</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16166281755196305</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="14"/>
+        <v>2.6556148038646324E-2</v>
+      </c>
+      <c r="G27">
+        <v>1747</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10360075805432722</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="13"/>
+        <v>9.2233778575576797E-2</v>
+      </c>
+      <c r="X27">
+        <v>94978</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="61"/>
+        <v>18941</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" ref="Z27" si="69">X27-X26</f>
+        <v>7467</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" ref="AA27" si="70">Y27-Y26</f>
+        <v>2151</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" ref="AB27" si="71">AA27/Z27</f>
+        <v>0.28806749698674167</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="65"/>
+        <v>0.19942513003011222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="43"/>
+        <v>43931</v>
+      </c>
+      <c r="B28">
+        <f>20974</f>
+        <v>20974</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10733329813631803</v>
+      </c>
+      <c r="D28">
+        <v>599</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28" si="72">(D28-D27)/D27</f>
+        <v>0.19085487077534791</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ref="F28" si="73">D28/B28</f>
+        <v>2.8559168494326308E-2</v>
+      </c>
+      <c r="G28">
+        <v>1956</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11963365769891242</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="13"/>
+        <v>9.3258319824544675E-2</v>
+      </c>
+      <c r="X28">
+        <v>102372</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" ref="Y28" si="74">B28</f>
+        <v>20974</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" ref="Z28" si="75">X28-X27</f>
+        <v>7394</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" ref="AA28" si="76">Y28-Y27</f>
+        <v>2033</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" ref="AB28" si="77">AA28/Z28</f>
+        <v>0.2749526643224236</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" ref="AC28" si="78">Y28/X28</f>
+        <v>0.2048802406908139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="43"/>
+        <v>43932</v>
+      </c>
+      <c r="B29">
+        <v>22860</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="6"/>
+        <v>8.9920854391150953E-2</v>
+      </c>
+      <c r="D29">
+        <v>686</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29" si="79">(D29-D28)/D28</f>
+        <v>0.14524207011686144</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" ref="F29" si="80">D29/B29</f>
+        <v>3.00087489063867E-2</v>
+      </c>
+      <c r="G29">
+        <v>2120</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" ref="H29" si="81">(G29-G28)/G28</f>
+        <v>8.3844580777096112E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" ref="I29" si="82">G29/B29</f>
+        <v>9.2738407699037614E-2</v>
+      </c>
+      <c r="X29">
+        <v>108776</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" ref="Y29:Y38" si="83">B29</f>
+        <v>22860</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" ref="Z29" si="84">X29-X28</f>
+        <v>6404</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" ref="AA29" si="85">Y29-Y28</f>
+        <v>1886</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" ref="AB29" si="86">AA29/Z29</f>
+        <v>0.29450343535290441</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" ref="AC29" si="87">Y29/X29</f>
+        <v>0.21015665220269178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="43"/>
+        <v>43933</v>
+      </c>
+      <c r="B30">
+        <v>25475</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11439195100612423</v>
+      </c>
+      <c r="D30">
+        <v>756</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30" si="88">(D30-D29)/D29</f>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ref="F30" si="89">D30/B30</f>
+        <v>2.9676153091265946E-2</v>
+      </c>
+      <c r="G30">
+        <v>2235</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" ref="H30" si="90">(G30-G29)/G29</f>
+        <v>5.4245283018867926E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" ref="I30" si="91">G30/B30</f>
+        <v>8.7733071638861626E-2</v>
+      </c>
+      <c r="X30">
+        <v>116730</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="83"/>
+        <v>25475</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" ref="Z30" si="92">X30-X29</f>
+        <v>7954</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ref="AA30" si="93">Y30-Y29</f>
+        <v>2615</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" ref="AB30" si="94">AA30/Z30</f>
+        <v>0.32876540105607244</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" ref="AC30" si="95">Y30/X30</f>
+        <v>0.218238670436049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="43"/>
+        <v>43934</v>
+      </c>
+      <c r="B31">
+        <v>26867</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="6"/>
+        <v>5.4641805691854763E-2</v>
+      </c>
+      <c r="D31">
+        <v>844</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:E38" si="96">(D31-D30)/D30</f>
+        <v>0.1164021164021164</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" ref="F31:F38" si="97">D31/B31</f>
+        <v>3.1414002307663676E-2</v>
+      </c>
+      <c r="G31">
+        <v>2340</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" ref="H31:H34" si="98">(G31-G30)/G30</f>
+        <v>4.6979865771812082E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" ref="I31:I38" si="99">G31/B31</f>
+        <v>8.7095693601816349E-2</v>
+      </c>
+      <c r="X31">
+        <v>122049</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="83"/>
+        <v>26867</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" ref="Z31:Z34" si="100">X31-X30</f>
+        <v>5319</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" ref="AA31:AA34" si="101">Y31-Y30</f>
+        <v>1392</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" ref="AB31:AB34" si="102">AA31/Z31</f>
+        <v>0.26170332769317539</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" ref="AC31:AC37" si="103">Y31/X31</f>
+        <v>0.22013289744283035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="43"/>
+        <v>43935</v>
+      </c>
+      <c r="B32">
+        <v>28163</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ref="C32:C38" si="104">(B32-B31)/B31</f>
+        <v>4.8237614917929057E-2</v>
+      </c>
+      <c r="D32">
+        <v>957</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="96"/>
+        <v>0.13388625592417061</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="97"/>
+        <v>3.3980754891169265E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>126551</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="83"/>
+        <v>28163</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="100"/>
+        <v>4502</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="101"/>
+        <v>1296</v>
+      </c>
+      <c r="AB32" s="2">
+        <f t="shared" si="102"/>
+        <v>0.28787205686361617</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" si="103"/>
+        <v>0.22254269029877283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="43"/>
+        <v>43936</v>
+      </c>
+      <c r="B33">
+        <v>29918</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="104"/>
+        <v>6.2315804424244579E-2</v>
+      </c>
+      <c r="D33">
+        <v>1108</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="96"/>
+        <v>0.15778474399164055</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="97"/>
+        <v>3.7034561133765624E-2</v>
+      </c>
+      <c r="H33" s="2" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>132023</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="83"/>
+        <v>29918</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="100"/>
+        <v>5472</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="101"/>
+        <v>1755</v>
+      </c>
+      <c r="AB33" s="2">
+        <f t="shared" si="102"/>
+        <v>0.32072368421052633</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" si="103"/>
+        <v>0.22661202972209388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="43"/>
+        <v>43937</v>
+      </c>
+      <c r="B34">
+        <v>32181</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="104"/>
+        <v>7.5640082893241534E-2</v>
+      </c>
+      <c r="D34">
+        <v>1245</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="96"/>
+        <v>0.12364620938628158</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="97"/>
+        <v>3.8687424256548898E-2</v>
+      </c>
+      <c r="H34" s="2" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>140773</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="83"/>
+        <v>32181</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="100"/>
+        <v>8750</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="101"/>
+        <v>2263</v>
+      </c>
+      <c r="AB34" s="2">
+        <f t="shared" si="102"/>
+        <v>0.25862857142857143</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="103"/>
+        <v>0.22860207568212654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="43"/>
+        <v>43938</v>
+      </c>
+      <c r="B35">
+        <v>34402</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="104"/>
+        <v>6.9015878934775177E-2</v>
+      </c>
+      <c r="D35">
+        <v>1404</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="96"/>
+        <v>0.12771084337349398</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="97"/>
+        <v>4.0811580722051044E-2</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>148744</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="83"/>
+        <v>34402</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" ref="Z35" si="105">X35-X34</f>
+        <v>7971</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ref="AA35" si="106">Y35-Y34</f>
+        <v>2221</v>
+      </c>
+      <c r="AB35" s="2">
+        <f t="shared" ref="AB35" si="107">AA35/Z35</f>
+        <v>0.27863505206373101</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="103"/>
+        <v>0.2312832786532566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="43"/>
+        <v>43939</v>
+      </c>
+      <c r="B36">
+        <v>36372</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="104"/>
+        <v>5.7264112551595837E-2</v>
+      </c>
+      <c r="D36">
+        <v>1560</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="96"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="97"/>
+        <v>4.2890135268888158E-2</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>156806</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="83"/>
+        <v>36372</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" ref="Z36" si="108">X36-X35</f>
+        <v>8062</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" ref="AA36" si="109">Y36-Y35</f>
+        <v>1970</v>
+      </c>
+      <c r="AB36" s="2">
+        <f t="shared" ref="AB36" si="110">AA36/Z36</f>
+        <v>0.24435623914661375</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="103"/>
+        <v>0.23195540986952029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="43"/>
+        <v>43940</v>
+      </c>
+      <c r="B37">
+        <v>38077</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="104"/>
+        <v>4.6876718354778399E-2</v>
+      </c>
+      <c r="D37">
+        <v>1706</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="96"/>
+        <v>9.358974358974359E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="97"/>
+        <v>4.4803949891010324E-2</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>162241</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="83"/>
+        <v>38077</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" ref="Z37" si="111">X37-X36</f>
+        <v>5435</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ref="AA37" si="112">Y37-Y36</f>
+        <v>1705</v>
+      </c>
+      <c r="AB37" s="2">
+        <f t="shared" ref="AB37" si="113">AA37/Z37</f>
+        <v>0.31370745170193193</v>
+      </c>
+      <c r="AC37" s="2">
+        <f t="shared" si="103"/>
+        <v>0.23469406623479885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="43"/>
+        <v>43941</v>
+      </c>
+      <c r="B38">
+        <v>39643</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="104"/>
+        <v>4.112718964204113E-2</v>
+      </c>
+      <c r="D38">
+        <v>1809</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="96"/>
+        <v>6.0375146541617818E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="97"/>
+        <v>4.5632267991827055E-2</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>169398</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="83"/>
+        <v>39643</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" ref="Z38" si="114">X38-X37</f>
+        <v>7157</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ref="AA38" si="115">Y38-Y37</f>
+        <v>1566</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" ref="AB38" si="116">AA38/Z38</f>
+        <v>0.21880676261003212</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" ref="AC38" si="117">Y38/X38</f>
+        <v>0.23402283379969066</v>
       </c>
     </row>
   </sheetData>

--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F400AEF-91BA-3C40-98EC-BBED3F6D85CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB85516-B453-924F-9F5D-0EDBE69FB4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42040" yWindow="2860" windowWidth="18180" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="38280" yWindow="4720" windowWidth="21480" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,6 +183,1189 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MA Tests v. Cases (daily starting 4/3)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$21:$Z$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>6354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5435</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7157</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5974</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5090</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14614</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11632</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$21:$AA$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D1B-4648-A17D-A4316759C333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561677008"/>
+        <c:axId val="561678640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561677008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561678640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561678640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Positive cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561677008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1249C2BA-E7A7-064F-ABC0-249225E1FFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD043-FC09-3B43-BF4D-6B30E18A11C2}">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1781,7 +2964,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:A38" si="43">A19+1</f>
+        <f t="shared" ref="A20:A45" si="43">A19+1</f>
         <v>43923</v>
       </c>
       <c r="B20">
@@ -2340,7 +3523,7 @@
         <v>108776</v>
       </c>
       <c r="Y29">
-        <f t="shared" ref="Y29:Y38" si="83">B29</f>
+        <f t="shared" ref="Y29:Y39" si="83">B29</f>
         <v>22860</v>
       </c>
       <c r="Z29">
@@ -2434,11 +3617,11 @@
         <v>844</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31:E38" si="96">(D31-D30)/D30</f>
+        <f t="shared" ref="E31:E45" si="96">(D31-D30)/D30</f>
         <v>0.1164021164021164</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ref="F31:F38" si="97">D31/B31</f>
+        <f t="shared" ref="F31:F45" si="97">D31/B31</f>
         <v>3.1414002307663676E-2</v>
       </c>
       <c r="G31">
@@ -2449,7 +3632,7 @@
         <v>4.6979865771812082E-2</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" ref="I31:I38" si="99">G31/B31</f>
+        <f t="shared" ref="I31:I45" si="99">G31/B31</f>
         <v>8.7095693601816349E-2</v>
       </c>
       <c r="X31">
@@ -2485,7 +3668,7 @@
         <v>28163</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:C38" si="104">(B32-B31)/B31</f>
+        <f t="shared" ref="C32:C45" si="104">(B32-B31)/B31</f>
         <v>4.8237614917929057E-2</v>
       </c>
       <c r="D32">
@@ -2841,13 +4024,371 @@
         <v>0.21880676261003212</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" ref="AC38" si="117">Y38/X38</f>
+        <f t="shared" ref="AC38:AC39" si="117">Y38/X38</f>
         <v>0.23402283379969066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="43"/>
+        <v>43942</v>
+      </c>
+      <c r="B39">
+        <v>41199</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="104"/>
+        <v>3.9250309007895466E-2</v>
+      </c>
+      <c r="D39">
+        <v>1961</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="96"/>
+        <v>8.4024322830292986E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="97"/>
+        <v>4.7598242675793101E-2</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>175372</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="83"/>
+        <v>41199</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" ref="Z39" si="118">X39-X38</f>
+        <v>5974</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" ref="AA39" si="119">Y39-Y38</f>
+        <v>1556</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" ref="AB39" si="120">AA39/Z39</f>
+        <v>0.2604620020087044</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="117"/>
+        <v>0.23492347695185092</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="43"/>
+        <v>43943</v>
+      </c>
+      <c r="B40">
+        <v>42944</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="104"/>
+        <v>4.2355396975654748E-2</v>
+      </c>
+      <c r="D40">
+        <v>2182</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="96"/>
+        <v>0.11269760326364101</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="97"/>
+        <v>5.0810357675111772E-2</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>180462</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ref="Y40" si="121">B40</f>
+        <v>42944</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" ref="Z40:Z41" si="122">X40-X39</f>
+        <v>5090</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" ref="AA40" si="123">Y40-Y39</f>
+        <v>1745</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" ref="AB40" si="124">AA40/Z40</f>
+        <v>0.34282907662082512</v>
+      </c>
+      <c r="AC40" s="2">
+        <f t="shared" ref="AC40" si="125">Y40/X40</f>
+        <v>0.23796699582183506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="43"/>
+        <v>43944</v>
+      </c>
+      <c r="B41">
+        <v>46023</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="104"/>
+        <v>7.1698025335320423E-2</v>
+      </c>
+      <c r="D41">
+        <v>2360</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="96"/>
+        <v>8.1576535288725938E-2</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="97"/>
+        <v>5.127870847185103E-2</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>195076</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" ref="Y41:Y42" si="126">B41</f>
+        <v>46023</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="122"/>
+        <v>14614</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" ref="AA41" si="127">Y41-Y40</f>
+        <v>3079</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" ref="AB41" si="128">AA41/Z41</f>
+        <v>0.21068838100451623</v>
+      </c>
+      <c r="AC41" s="2">
+        <f t="shared" ref="AC41:AC42" si="129">Y41/X41</f>
+        <v>0.2359234349689352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="43"/>
+        <v>43945</v>
+      </c>
+      <c r="B42">
+        <v>50949</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="104"/>
+        <v>0.10703343980183821</v>
+      </c>
+      <c r="D42">
+        <v>2556</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="96"/>
+        <v>8.3050847457627114E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="97"/>
+        <v>5.0167814873697224E-2</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>215213</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="126"/>
+        <v>50949</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" ref="Z42" si="130">X42-X41</f>
+        <v>20137</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" ref="AA42" si="131">Y42-Y41</f>
+        <v>4926</v>
+      </c>
+      <c r="AB42" s="2">
+        <f t="shared" ref="AB42" si="132">AA42/Z42</f>
+        <v>0.24462432338481402</v>
+      </c>
+      <c r="AC42" s="2">
+        <f t="shared" si="129"/>
+        <v>0.23673755767541924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="43"/>
+        <v>43946</v>
+      </c>
+      <c r="B43">
+        <v>53348</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="104"/>
+        <v>4.7086301988262774E-2</v>
+      </c>
+      <c r="D43">
+        <v>2730</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="96"/>
+        <v>6.8075117370892016E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="97"/>
+        <v>5.1173427307490443E-2</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>226845</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" ref="Y43" si="133">B43</f>
+        <v>53348</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" ref="Z43" si="134">X43-X42</f>
+        <v>11632</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" ref="AA43" si="135">Y43-Y42</f>
+        <v>2399</v>
+      </c>
+      <c r="AB43" s="2">
+        <f t="shared" ref="AB43" si="136">AA43/Z43</f>
+        <v>0.20624140302613481</v>
+      </c>
+      <c r="AC43" s="2">
+        <f t="shared" ref="AC43" si="137">Y43/X43</f>
+        <v>0.23517379708611608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="43"/>
+        <v>43947</v>
+      </c>
+      <c r="B44">
+        <v>54938</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="104"/>
+        <v>2.9804303816450477E-2</v>
+      </c>
+      <c r="D44">
+        <v>2899</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="96"/>
+        <v>6.1904761904761907E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="97"/>
+        <v>5.2768575485092284E-2</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>236100</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" ref="Y44" si="138">B44</f>
+        <v>54938</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" ref="Z44" si="139">X44-X43</f>
+        <v>9255</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" ref="AA44" si="140">Y44-Y43</f>
+        <v>1590</v>
+      </c>
+      <c r="AB44" s="2">
+        <f t="shared" ref="AB44" si="141">AA44/Z44</f>
+        <v>0.17179902755267423</v>
+      </c>
+      <c r="AC44" s="2">
+        <f t="shared" ref="AC44" si="142">Y44/X44</f>
+        <v>0.23268953833121558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="43"/>
+        <v>43948</v>
+      </c>
+      <c r="B45">
+        <v>56462</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="104"/>
+        <v>2.7740361862463141E-2</v>
+      </c>
+      <c r="D45">
+        <v>3003</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="96"/>
+        <v>3.5874439461883408E-2</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="97"/>
+        <v>5.3186213736672455E-2</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>244887</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" ref="Y45" si="143">B45</f>
+        <v>56462</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" ref="Z45" si="144">X45-X44</f>
+        <v>8787</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" ref="AA45" si="145">Y45-Y44</f>
+        <v>1524</v>
+      </c>
+      <c r="AB45" s="2">
+        <f t="shared" ref="AB45" si="146">AA45/Z45</f>
+        <v>0.17343803345851827</v>
+      </c>
+      <c r="AC45" s="2">
+        <f t="shared" ref="AC45" si="147">Y45/X45</f>
+        <v>0.23056348438259278</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB85516-B453-924F-9F5D-0EDBE69FB4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFFCCFA-0878-E149-9FA4-9CBACC49719D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="4720" windowWidth="21480" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="36900" yWindow="2200" windowWidth="21480" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,6 +285,246 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>5/1</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6582-D749-B21D-0E8E928C1A44}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>5/3</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6582-D749-B21D-0E8E928C1A44}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>5/4</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6582-D749-B21D-0E8E928C1A44}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>3/5</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6582-D749-B21D-0E8E928C1A44}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>5/6</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6582-D749-B21D-0E8E928C1A44}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>5/8</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D86E-D14F-BE2D-919B3FC77DAB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -301,10 +541,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$21:$Z$45</c:f>
+              <c:f>Sheet1!$Z$21:$Z$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>6354</c:v>
                 </c:pt>
@@ -379,16 +619,76 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>8787</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9613</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11118</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10029</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13989</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9358</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15652</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9622</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9081</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6290</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14391</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10514</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11852</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6339</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6768</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14329</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11318</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12410</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$21:$AA$45</c:f>
+              <c:f>Sheet1!$AA$21:$AA$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1436</c:v>
                 </c:pt>
@@ -463,6 +763,66 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1754</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1696</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1612</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,16 +1691,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1665,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD043-FC09-3B43-BF4D-6B30E18A11C2}">
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="AE58" sqref="AE58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2964,7 +3324,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:A45" si="43">A19+1</f>
+        <f t="shared" ref="A20:A65" si="43">A19+1</f>
         <v>43923</v>
       </c>
       <c r="B20">
@@ -3617,11 +3977,11 @@
         <v>844</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31:E45" si="96">(D31-D30)/D30</f>
+        <f t="shared" ref="E31:E65" si="96">(D31-D30)/D30</f>
         <v>0.1164021164021164</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ref="F31:F45" si="97">D31/B31</f>
+        <f t="shared" ref="F31:F56" si="97">D31/B31</f>
         <v>3.1414002307663676E-2</v>
       </c>
       <c r="G31">
@@ -3632,7 +3992,7 @@
         <v>4.6979865771812082E-2</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" ref="I31:I45" si="99">G31/B31</f>
+        <f t="shared" ref="I31:I56" si="99">G31/B31</f>
         <v>8.7095693601816349E-2</v>
       </c>
       <c r="X31">
@@ -3668,7 +4028,7 @@
         <v>28163</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:C45" si="104">(B32-B31)/B31</f>
+        <f t="shared" ref="C32:C65" si="104">(B32-B31)/B31</f>
         <v>4.8237614917929057E-2</v>
       </c>
       <c r="D32">
@@ -4383,6 +4743,957 @@
       <c r="AC45" s="2">
         <f t="shared" ref="AC45" si="147">Y45/X45</f>
         <v>0.23056348438259278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="43"/>
+        <v>43949</v>
+      </c>
+      <c r="B46">
+        <v>58302</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="104"/>
+        <v>3.2588289469023417E-2</v>
+      </c>
+      <c r="D46">
+        <v>3153</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="96"/>
+        <v>4.9950049950049952E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="97"/>
+        <v>5.4080477513635893E-2</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>254500</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" ref="Y46" si="148">B46</f>
+        <v>58302</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" ref="Z46" si="149">X46-X45</f>
+        <v>9613</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" ref="AA46" si="150">Y46-Y45</f>
+        <v>1840</v>
+      </c>
+      <c r="AB46" s="2">
+        <f t="shared" ref="AB46" si="151">AA46/Z46</f>
+        <v>0.19140746905232497</v>
+      </c>
+      <c r="AC46" s="2">
+        <f t="shared" ref="AC46" si="152">Y46/X46</f>
+        <v>0.22908447937131632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="43"/>
+        <v>43950</v>
+      </c>
+      <c r="B47">
+        <v>60265</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="104"/>
+        <v>3.3669513910328977E-2</v>
+      </c>
+      <c r="D47">
+        <v>3405</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="96"/>
+        <v>7.9923882017126552E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="97"/>
+        <v>5.6500456317929146E-2</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>265618</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" ref="Y47:Y53" si="153">B47</f>
+        <v>60265</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" ref="Z47:Z53" si="154">X47-X46</f>
+        <v>11118</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" ref="AA47:AA53" si="155">Y47-Y46</f>
+        <v>1963</v>
+      </c>
+      <c r="AB47" s="2">
+        <f t="shared" ref="AB47:AB53" si="156">AA47/Z47</f>
+        <v>0.17656053246986869</v>
+      </c>
+      <c r="AC47" s="2">
+        <f t="shared" ref="AC47:AC53" si="157">Y47/X47</f>
+        <v>0.22688597911286132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="43"/>
+        <v>43951</v>
+      </c>
+      <c r="B48">
+        <v>62205</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="104"/>
+        <v>3.2191155728864183E-2</v>
+      </c>
+      <c r="D48">
+        <v>3562</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="96"/>
+        <v>4.6108663729809103E-2</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="97"/>
+        <v>5.7262277951933123E-2</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>275647</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="153"/>
+        <v>62205</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="154"/>
+        <v>10029</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="155"/>
+        <v>1940</v>
+      </c>
+      <c r="AB48" s="2">
+        <f t="shared" si="156"/>
+        <v>0.19343902682221559</v>
+      </c>
+      <c r="AC48" s="2">
+        <f t="shared" si="157"/>
+        <v>0.22566906224265093</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="43"/>
+        <v>43952</v>
+      </c>
+      <c r="B49">
+        <v>64311</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="104"/>
+        <v>3.385579937304075E-2</v>
+      </c>
+      <c r="D49">
+        <v>3716</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="96"/>
+        <v>4.3234138124649074E-2</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="97"/>
+        <v>5.7781716969103267E-2</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>289636</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="153"/>
+        <v>64311</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="154"/>
+        <v>13989</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="155"/>
+        <v>2106</v>
+      </c>
+      <c r="AB49" s="2">
+        <f t="shared" si="156"/>
+        <v>0.15054685824576453</v>
+      </c>
+      <c r="AC49" s="2">
+        <f t="shared" si="157"/>
+        <v>0.22204076841276638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="43"/>
+        <v>43953</v>
+      </c>
+      <c r="B50">
+        <v>66263</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="104"/>
+        <v>3.0352505792166192E-2</v>
+      </c>
+      <c r="D50">
+        <v>3846</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="96"/>
+        <v>3.4983853606027987E-2</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="97"/>
+        <v>5.804144092479966E-2</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>298994</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="153"/>
+        <v>66263</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="154"/>
+        <v>9358</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="155"/>
+        <v>1952</v>
+      </c>
+      <c r="AB50" s="2">
+        <f t="shared" si="156"/>
+        <v>0.2085915793973071</v>
+      </c>
+      <c r="AC50" s="2">
+        <f t="shared" si="157"/>
+        <v>0.22161983183609035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="43"/>
+        <v>43954</v>
+      </c>
+      <c r="B51">
+        <v>68087</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="104"/>
+        <v>2.7526674011137436E-2</v>
+      </c>
+      <c r="D51">
+        <v>4004</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="96"/>
+        <v>4.1081643265730626E-2</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="97"/>
+        <v>5.8807114427129999E-2</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>314646</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="153"/>
+        <v>68087</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="154"/>
+        <v>15652</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="155"/>
+        <v>1824</v>
+      </c>
+      <c r="AB51" s="2">
+        <f t="shared" si="156"/>
+        <v>0.11653462816253514</v>
+      </c>
+      <c r="AC51" s="2">
+        <f t="shared" si="157"/>
+        <v>0.21639239017816847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="43"/>
+        <v>43955</v>
+      </c>
+      <c r="B52">
+        <v>69087</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="104"/>
+        <v>1.4687091515267231E-2</v>
+      </c>
+      <c r="D52">
+        <v>4090</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="96"/>
+        <v>2.147852147852148E-2</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="97"/>
+        <v>5.9200717935356868E-2</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>324268</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="153"/>
+        <v>69087</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="154"/>
+        <v>9622</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="155"/>
+        <v>1000</v>
+      </c>
+      <c r="AB52" s="2">
+        <f t="shared" si="156"/>
+        <v>0.10392849719393057</v>
+      </c>
+      <c r="AC52" s="2">
+        <f t="shared" si="157"/>
+        <v>0.21305525059518671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="43"/>
+        <v>43956</v>
+      </c>
+      <c r="B53">
+        <v>70271</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="104"/>
+        <v>1.7137811744611865E-2</v>
+      </c>
+      <c r="D53">
+        <v>4212</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="96"/>
+        <v>2.9828850855745721E-2</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="97"/>
+        <v>5.9939377552617724E-2</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>333349</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="153"/>
+        <v>70271</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="154"/>
+        <v>9081</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="155"/>
+        <v>1184</v>
+      </c>
+      <c r="AB53" s="2">
+        <f t="shared" si="156"/>
+        <v>0.13038211650699263</v>
+      </c>
+      <c r="AC53" s="2">
+        <f t="shared" si="157"/>
+        <v>0.21080309225466404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="43"/>
+        <v>43957</v>
+      </c>
+      <c r="B54">
+        <v>72025</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="104"/>
+        <v>2.4960510025472813E-2</v>
+      </c>
+      <c r="D54">
+        <v>4420</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="96"/>
+        <v>4.9382716049382713E-2</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="97"/>
+        <v>6.1367580701145438E-2</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>339639</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" ref="Y54:Y62" si="158">B54</f>
+        <v>72025</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" ref="Z54:Z61" si="159">X54-X53</f>
+        <v>6290</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" ref="AA54:AA61" si="160">Y54-Y53</f>
+        <v>1754</v>
+      </c>
+      <c r="AB54" s="2">
+        <f t="shared" ref="AB54:AB61" si="161">AA54/Z54</f>
+        <v>0.27885532591414947</v>
+      </c>
+      <c r="AC54" s="2">
+        <f t="shared" ref="AC54:AC62" si="162">Y54/X54</f>
+        <v>0.21206339672416891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="43"/>
+        <v>43958</v>
+      </c>
+      <c r="B55">
+        <v>73721</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="104"/>
+        <v>2.3547379382158971E-2</v>
+      </c>
+      <c r="D55">
+        <v>4552</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="96"/>
+        <v>2.986425339366516E-2</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="97"/>
+        <v>6.174631380475034E-2</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>351632</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="158"/>
+        <v>73721</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="159"/>
+        <v>11993</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="160"/>
+        <v>1696</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" si="161"/>
+        <v>0.14141582589844076</v>
+      </c>
+      <c r="AC55" s="2">
+        <f t="shared" si="162"/>
+        <v>0.20965384265368339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="43"/>
+        <v>43959</v>
+      </c>
+      <c r="B56">
+        <v>75333</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="104"/>
+        <v>2.1866225363193662E-2</v>
+      </c>
+      <c r="D56">
+        <v>4702</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="96"/>
+        <v>3.2952548330404216E-2</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="97"/>
+        <v>6.2416205381439743E-2</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>366023</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="158"/>
+        <v>75333</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="159"/>
+        <v>14391</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="160"/>
+        <v>1612</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="161"/>
+        <v>0.11201445347786811</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="162"/>
+        <v>0.20581493512702753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="43"/>
+        <v>43960</v>
+      </c>
+      <c r="B57">
+        <f>B58-1050</f>
+        <v>76743</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="104"/>
+        <v>1.8716896977420253E-2</v>
+      </c>
+      <c r="D57">
+        <v>4840</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="96"/>
+        <v>2.9349213100808166E-2</v>
+      </c>
+      <c r="X57">
+        <f>X58-11852</f>
+        <v>376537</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="158"/>
+        <v>76743</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="159"/>
+        <v>10514</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="160"/>
+        <v>1410</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="161"/>
+        <v>0.13410690507894235</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="162"/>
+        <v>0.20381263992648796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="43"/>
+        <v>43961</v>
+      </c>
+      <c r="B58">
+        <f>B59-669</f>
+        <v>77793</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="104"/>
+        <v>1.368202963136703E-2</v>
+      </c>
+      <c r="D58">
+        <v>4979</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="96"/>
+        <v>2.871900826446281E-2</v>
+      </c>
+      <c r="X58">
+        <v>388389</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="158"/>
+        <v>77793</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="159"/>
+        <v>11852</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="160"/>
+        <v>1050</v>
+      </c>
+      <c r="AB58" s="2">
+        <f t="shared" si="161"/>
+        <v>8.8592642591967599E-2</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="162"/>
+        <v>0.2002966098421943</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="43"/>
+        <v>43962</v>
+      </c>
+      <c r="B59">
+        <v>78462</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="104"/>
+        <v>8.5997454783849452E-3</v>
+      </c>
+      <c r="D59">
+        <v>5108</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="96"/>
+        <v>2.5908817031532437E-2</v>
+      </c>
+      <c r="X59">
+        <v>394728</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="158"/>
+        <v>78462</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="159"/>
+        <v>6339</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="160"/>
+        <v>669</v>
+      </c>
+      <c r="AB59" s="2">
+        <f t="shared" si="161"/>
+        <v>0.10553715097018457</v>
+      </c>
+      <c r="AC59" s="2">
+        <f t="shared" si="162"/>
+        <v>0.19877485255669727</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="43"/>
+        <v>43963</v>
+      </c>
+      <c r="B60">
+        <v>79332</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="104"/>
+        <v>1.1088170069587826E-2</v>
+      </c>
+      <c r="D60">
+        <v>5141</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="96"/>
+        <v>6.4604541895066561E-3</v>
+      </c>
+      <c r="X60">
+        <v>401496</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="158"/>
+        <v>79332</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="159"/>
+        <v>6768</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="160"/>
+        <v>870</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" si="161"/>
+        <v>0.12854609929078015</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="162"/>
+        <v>0.19759100962400622</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="43"/>
+        <v>43964</v>
+      </c>
+      <c r="B61">
+        <v>80497</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="104"/>
+        <v>1.4685120758332074E-2</v>
+      </c>
+      <c r="D61">
+        <v>5315</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="96"/>
+        <v>3.3845555339428124E-2</v>
+      </c>
+      <c r="X61">
+        <v>410032</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="158"/>
+        <v>80497</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="159"/>
+        <v>8536</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="160"/>
+        <v>1165</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" si="161"/>
+        <v>0.13648078725398313</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" si="162"/>
+        <v>0.19631882389667149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="43"/>
+        <v>43965</v>
+      </c>
+      <c r="B62">
+        <v>82182</v>
+      </c>
+      <c r="C62" s="2">
+        <f>(B62-B61)/B61</f>
+        <v>2.0932457110202866E-2</v>
+      </c>
+      <c r="D62">
+        <v>5482</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="96"/>
+        <v>3.1420507996237065E-2</v>
+      </c>
+      <c r="X62">
+        <v>424361</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="158"/>
+        <v>82182</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" ref="Z62" si="163">X62-X61</f>
+        <v>14329</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" ref="AA62" si="164">Y62-Y61</f>
+        <v>1685</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" ref="AB62" si="165">AA62/Z62</f>
+        <v>0.11759369111591876</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" si="162"/>
+        <v>0.19366058615188483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="43"/>
+        <v>43966</v>
+      </c>
+      <c r="B63">
+        <v>83421</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="104"/>
+        <v>1.5076294078995401E-2</v>
+      </c>
+      <c r="D63">
+        <v>5592</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="96"/>
+        <v>2.0065669463699379E-2</v>
+      </c>
+      <c r="X63">
+        <v>435679</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" ref="Y63:Y65" si="166">B63</f>
+        <v>83421</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" ref="Z63:Z65" si="167">X63-X62</f>
+        <v>11318</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" ref="AA63:AA65" si="168">Y63-Y62</f>
+        <v>1239</v>
+      </c>
+      <c r="AB63" s="2">
+        <f t="shared" ref="AB63:AB65" si="169">AA63/Z63</f>
+        <v>0.109471638098604</v>
+      </c>
+      <c r="AC63" s="2">
+        <f t="shared" ref="AC63:AC65" si="170">Y63/X63</f>
+        <v>0.19147353900463415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="43"/>
+        <v>43967</v>
+      </c>
+      <c r="B64">
+        <v>84933</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="104"/>
+        <v>1.8124932570935375E-2</v>
+      </c>
+      <c r="D64">
+        <v>5705</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="96"/>
+        <v>2.0207439198855509E-2</v>
+      </c>
+      <c r="X64">
+        <v>448089</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="166"/>
+        <v>84933</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="167"/>
+        <v>12410</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="168"/>
+        <v>1512</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="169"/>
+        <v>0.1218372280419017</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="170"/>
+        <v>0.18954493415370607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="43"/>
+        <v>43968</v>
+      </c>
+      <c r="B65">
+        <v>86010</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="104"/>
+        <v>1.2680583518773622E-2</v>
+      </c>
+      <c r="D65">
+        <v>5797</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="96"/>
+        <v>1.6126205083260299E-2</v>
+      </c>
+      <c r="X65">
+        <v>460826</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="166"/>
+        <v>86010</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="167"/>
+        <v>12737</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="168"/>
+        <v>1077</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="169"/>
+        <v>8.4556803014838658E-2</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="170"/>
+        <v>0.18664311475480985</v>
       </c>
     </row>
   </sheetData>

--- a/data/ma.xlsx
+++ b/data/ma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/gitcode/covid-compute/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFFCCFA-0878-E149-9FA4-9CBACC49719D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B080E0-C301-374A-9A71-F423C0CE29D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36900" yWindow="2200" windowWidth="21480" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
+    <workbookView xWindow="41800" yWindow="4820" windowWidth="21480" windowHeight="19100" xr2:uid="{CB30B321-1480-9C49-ACE9-CBB5D2FAF132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,6 +469,36 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>5/17</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-743D-9148-ACFC-4ADE16EE2585}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -541,10 +571,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$21:$Z$65</c:f>
+              <c:f>Sheet1!$Z$21:$Z$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>6354</c:v>
                 </c:pt>
@@ -679,16 +709,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>12737</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$21:$AA$65</c:f>
+              <c:f>Sheet1!$AA$21:$AA$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1436</c:v>
                 </c:pt>
@@ -823,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD043-FC09-3B43-BF4D-6B30E18A11C2}">
-  <dimension ref="A1:AC65"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="AE58" sqref="AE58"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="Y67" sqref="Y67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3324,7 +3360,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:A65" si="43">A19+1</f>
+        <f t="shared" ref="A20:A71" si="43">A19+1</f>
         <v>43923</v>
       </c>
       <c r="B20">
@@ -3977,7 +4013,7 @@
         <v>844</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31:E65" si="96">(D31-D30)/D30</f>
+        <f t="shared" ref="E31:E71" si="96">(D31-D30)/D30</f>
         <v>0.1164021164021164</v>
       </c>
       <c r="F31" s="2">
@@ -4028,7 +4064,7 @@
         <v>28163</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:C65" si="104">(B32-B31)/B31</f>
+        <f t="shared" ref="C32:C71" si="104">(B32-B31)/B31</f>
         <v>4.8237614917929057E-2</v>
       </c>
       <c r="D32">
@@ -5694,6 +5730,228 @@
       <c r="AC65" s="2">
         <f t="shared" si="170"/>
         <v>0.18664311475480985</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="43"/>
+        <v>43969</v>
+      </c>
+      <c r="B66">
+        <v>87052</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="104"/>
+        <v>1.2114870363911174E-2</v>
+      </c>
+      <c r="D66">
+        <v>5862</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="96"/>
+        <v>1.1212696222183889E-2</v>
+      </c>
+      <c r="X66">
+        <v>469199</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" ref="Y66:Y71" si="171">B66</f>
+        <v>87052</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" ref="Z66:Z71" si="172">X66-X65</f>
+        <v>8373</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" ref="AA66:AA71" si="173">Y66-Y65</f>
+        <v>1042</v>
+      </c>
+      <c r="AB66" s="2">
+        <f t="shared" ref="AB66:AB71" si="174">AA66/Z66</f>
+        <v>0.12444762928460527</v>
+      </c>
+      <c r="AC66" s="2">
+        <f t="shared" ref="AC66:AC71" si="175">Y66/X66</f>
+        <v>0.18553321724897112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" si="43"/>
+        <v>43970</v>
+      </c>
+      <c r="B67">
+        <v>87925</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="104"/>
+        <v>1.0028488719386114E-2</v>
+      </c>
+      <c r="D67">
+        <v>5938</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="96"/>
+        <v>1.2964858410098942E-2</v>
+      </c>
+      <c r="X67">
+        <v>476940</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="171"/>
+        <v>87925</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="172"/>
+        <v>7741</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="173"/>
+        <v>873</v>
+      </c>
+      <c r="AB67" s="2">
+        <f t="shared" si="174"/>
+        <v>0.11277612711535977</v>
+      </c>
+      <c r="AC67" s="2">
+        <f t="shared" si="175"/>
+        <v>0.18435232943347171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" si="43"/>
+        <v>43971</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="104"/>
+        <v>-1</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="96"/>
+        <v>-1</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="172"/>
+        <v>-476940</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="173"/>
+        <v>-87925</v>
+      </c>
+      <c r="AB68" s="2">
+        <f t="shared" si="174"/>
+        <v>0.18435232943347171</v>
+      </c>
+      <c r="AC68" s="2" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="43"/>
+        <v>43972</v>
+      </c>
+      <c r="C69" s="2" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E69" s="2" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="2" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC69" s="2" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="43"/>
+        <v>43973</v>
+      </c>
+      <c r="C70" s="2" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E70" s="2" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="2" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC70" s="2" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="43"/>
+        <v>43974</v>
+      </c>
+      <c r="C71" s="2" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E71" s="2" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="2" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC71" s="2" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
